--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.2198752250841</v>
+        <v>15.21987522508412</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.493153941453499</v>
+        <v>2.493153941453542</v>
       </c>
       <c r="E2">
-        <v>5.236923754117051</v>
+        <v>5.236923754117047</v>
       </c>
       <c r="F2">
-        <v>36.66275471396499</v>
+        <v>36.66275471396494</v>
       </c>
       <c r="G2">
-        <v>28.29588045170774</v>
+        <v>28.29588045170772</v>
       </c>
       <c r="H2">
-        <v>9.705054315937607</v>
+        <v>9.705054315937504</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.07758164739556</v>
+        <v>41.07758164739551</v>
       </c>
       <c r="K2">
-        <v>31.69307333349657</v>
+        <v>31.69307333349652</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19025514222757</v>
+        <v>14.19025514222759</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.323696501376536</v>
+        <v>2.323696501376586</v>
       </c>
       <c r="E3">
-        <v>5.320192122554097</v>
+        <v>5.320192122554027</v>
       </c>
       <c r="F3">
-        <v>33.87805210311895</v>
+        <v>33.87805210311892</v>
       </c>
       <c r="G3">
-        <v>26.09280671925753</v>
+        <v>26.09280671925749</v>
       </c>
       <c r="H3">
-        <v>10.4406765958096</v>
+        <v>10.44067659580956</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.24054832224824</v>
+        <v>38.24054832224818</v>
       </c>
       <c r="K3">
-        <v>29.4194090472703</v>
+        <v>29.41940904727026</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.52401813196063</v>
+        <v>13.52401813196068</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.347938684628902</v>
+        <v>2.347938684628931</v>
       </c>
       <c r="E4">
-        <v>5.374718691488168</v>
+        <v>5.374718691488104</v>
       </c>
       <c r="F4">
-        <v>32.25189996672806</v>
+        <v>32.25189996672803</v>
       </c>
       <c r="G4">
-        <v>24.88959640552523</v>
+        <v>24.88959640552522</v>
       </c>
       <c r="H4">
-        <v>10.89833373017421</v>
+        <v>10.89833373017415</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.41309976322166</v>
+        <v>36.4130997632216</v>
       </c>
       <c r="K4">
-        <v>27.95940157776439</v>
+        <v>27.95940157776434</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.2438478904331</v>
+        <v>13.24384789043313</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.360913537146877</v>
+        <v>2.360913537146782</v>
       </c>
       <c r="E5">
-        <v>5.397789342610042</v>
+        <v>5.397789342609914</v>
       </c>
       <c r="F5">
-        <v>31.60020017661636</v>
+        <v>31.60020017661637</v>
       </c>
       <c r="G5">
         <v>24.41521851860059</v>
       </c>
       <c r="H5">
-        <v>11.08654168571222</v>
+        <v>11.08654168571209</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>35.64643759842519</v>
       </c>
       <c r="K5">
-        <v>27.34787033332197</v>
+        <v>27.34787033332194</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19679894901671</v>
+        <v>13.19679894901667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.363241413538101</v>
+        <v>2.363241413538133</v>
       </c>
       <c r="E6">
-        <v>5.401671497651146</v>
+        <v>5.401671497651215</v>
       </c>
       <c r="F6">
-        <v>31.49171261808277</v>
+        <v>31.49171261808273</v>
       </c>
       <c r="G6">
-        <v>24.33639960026029</v>
+        <v>24.33639960026024</v>
       </c>
       <c r="H6">
-        <v>11.11790246739324</v>
+        <v>11.11790246739321</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.5177950582335</v>
+        <v>35.51779505823355</v>
       </c>
       <c r="K6">
-        <v>27.24531234460628</v>
+        <v>27.24531234460631</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.52027491532296</v>
+        <v>13.52027491532298</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.348101751423898</v>
+        <v>2.348101751423836</v>
       </c>
       <c r="E7">
-        <v>5.375026390235757</v>
+        <v>5.375026390235752</v>
       </c>
       <c r="F7">
         <v>32.24312934394533</v>
       </c>
       <c r="G7">
-        <v>24.88320217053962</v>
+        <v>24.8832021705396</v>
       </c>
       <c r="H7">
-        <v>10.90086478613119</v>
+        <v>10.90086478613118</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>36.40284978256164</v>
+        <v>36.40284978256162</v>
       </c>
       <c r="K7">
-        <v>27.95122193031631</v>
+        <v>27.9512219303163</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.8718570230388</v>
+        <v>14.87185702303878</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.406727926252107</v>
+        <v>2.406727926252101</v>
       </c>
       <c r="E8">
-        <v>5.264925924215566</v>
+        <v>5.264925924215697</v>
       </c>
       <c r="F8">
-        <v>35.71029618293885</v>
+        <v>35.71029618293882</v>
       </c>
       <c r="G8">
         <v>27.54259227225741</v>
       </c>
       <c r="H8">
-        <v>9.957581725292941</v>
+        <v>9.957581725293045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.11682003827583</v>
+        <v>40.11682003827581</v>
       </c>
       <c r="K8">
-        <v>30.92208439708942</v>
+        <v>30.9220843970894</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.25794559429749</v>
+        <v>17.25794559429747</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.032827032074838</v>
+        <v>3.032827032074844</v>
       </c>
       <c r="E9">
-        <v>5.076326029478864</v>
+        <v>5.076326029478763</v>
       </c>
       <c r="F9">
-        <v>42.47289940517561</v>
+        <v>42.4728994051754</v>
       </c>
       <c r="G9">
-        <v>32.88834429592753</v>
+        <v>32.88834429592736</v>
       </c>
       <c r="H9">
-        <v>8.1456647329288</v>
+        <v>8.145664732928813</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>46.74596224847176</v>
+        <v>46.74596224847166</v>
       </c>
       <c r="K9">
-        <v>36.26522702801729</v>
+        <v>36.26522702801724</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85917069154328</v>
+        <v>18.85917069154333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.501515214126823</v>
+        <v>3.501515214126749</v>
       </c>
       <c r="E10">
-        <v>4.955213280730479</v>
+        <v>4.955213280730384</v>
       </c>
       <c r="F10">
-        <v>47.32877680537868</v>
+        <v>47.32877680537866</v>
       </c>
       <c r="G10">
-        <v>36.72619902282089</v>
+        <v>36.72619902282084</v>
       </c>
       <c r="H10">
-        <v>6.824797965113781</v>
+        <v>6.824797965113619</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>51.25845275008487</v>
+        <v>51.25845275008484</v>
       </c>
       <c r="K10">
-        <v>39.93734510775131</v>
+        <v>39.93734510775126</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55715590000297</v>
+        <v>19.55715590000299</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.719776913914387</v>
+        <v>3.719776913914471</v>
       </c>
       <c r="E11">
-        <v>4.904236669710712</v>
+        <v>4.904236669710619</v>
       </c>
       <c r="F11">
-        <v>49.53211331920851</v>
+        <v>49.53211331920841</v>
       </c>
       <c r="G11">
-        <v>38.46828647328859</v>
+        <v>38.46828647328853</v>
       </c>
       <c r="H11">
-        <v>6.224362497679294</v>
+        <v>6.224362497679353</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>53.24507253024259</v>
+        <v>53.2450725302425</v>
       </c>
       <c r="K11">
-        <v>41.5642357234243</v>
+        <v>41.56423572342429</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.8173439617088</v>
+        <v>19.81734396170877</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.80349225882402</v>
+        <v>3.80349225882403</v>
       </c>
       <c r="E12">
-        <v>4.885570667262582</v>
+        <v>4.885570667262651</v>
       </c>
       <c r="F12">
-        <v>50.36775865881086</v>
+        <v>50.36775865881103</v>
       </c>
       <c r="G12">
-        <v>39.12916429785836</v>
+        <v>39.1291642978585</v>
       </c>
       <c r="H12">
-        <v>5.997126691594282</v>
+        <v>5.997126691594268</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>53.98905104743039</v>
+        <v>53.98905104743055</v>
       </c>
       <c r="K12">
-        <v>42.17522303430376</v>
+        <v>42.17522303430392</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.785409088158194</v>
+        <v>3.785409088158318</v>
       </c>
       <c r="E13">
-        <v>4.889561422107139</v>
+        <v>4.889561422107282</v>
       </c>
       <c r="F13">
-        <v>50.18769082307496</v>
+        <v>50.18769082307499</v>
       </c>
       <c r="G13">
-        <v>38.98674737649951</v>
+        <v>38.98674737649956</v>
       </c>
       <c r="H13">
-        <v>6.046054869490712</v>
+        <v>6.046054869490796</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>53.82916966894766</v>
+        <v>53.82916966894764</v>
       </c>
       <c r="K13">
-        <v>42.04384031084557</v>
+        <v>42.04384031084552</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.5786427725328</v>
+        <v>19.57864277253278</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.726640677249279</v>
+        <v>3.726640677249324</v>
       </c>
       <c r="E14">
-        <v>4.902687894247824</v>
+        <v>4.902687894247753</v>
       </c>
       <c r="F14">
-        <v>49.60082255549165</v>
+        <v>49.60082255549164</v>
       </c>
       <c r="G14">
-        <v>38.52262203481097</v>
+        <v>38.52262203481096</v>
       </c>
       <c r="H14">
-        <v>6.205663272283935</v>
+        <v>6.205663272283923</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>53.30643885533327</v>
+        <v>53.30643885533319</v>
       </c>
       <c r="K14">
-        <v>41.61459614265861</v>
+        <v>41.61459614265858</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,28 +912,28 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.690793301171063</v>
+        <v>3.690793301171074</v>
       </c>
       <c r="E15">
-        <v>4.910812971436312</v>
+        <v>4.910812971436316</v>
       </c>
       <c r="F15">
-        <v>49.2415882326417</v>
+        <v>49.24158823264161</v>
       </c>
       <c r="G15">
-        <v>38.23854516586992</v>
+        <v>38.23854516586987</v>
       </c>
       <c r="H15">
-        <v>6.303453691203155</v>
+        <v>6.303453691203194</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>52.98520878832556</v>
+        <v>52.98520878832558</v>
       </c>
       <c r="K15">
-        <v>41.35104951769313</v>
+        <v>41.35104951769309</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.81296398744976</v>
+        <v>18.81296398744983</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.48738013993219</v>
+        <v>3.48738013993234</v>
       </c>
       <c r="E16">
-        <v>4.958631066138464</v>
+        <v>4.958631066138524</v>
       </c>
       <c r="F16">
         <v>47.18483791125465</v>
       </c>
       <c r="G16">
-        <v>36.61241195900585</v>
+        <v>36.61241195900586</v>
       </c>
       <c r="H16">
-        <v>6.864046016351234</v>
+        <v>6.864046016351077</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>51.12738845320373</v>
+        <v>51.12738845320374</v>
       </c>
       <c r="K16">
-        <v>39.83024290657871</v>
+        <v>39.83024290657868</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.40464917638015</v>
+        <v>18.4046491763801</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.364104327745371</v>
+        <v>3.36410432774538</v>
       </c>
       <c r="E17">
-        <v>4.989047554065261</v>
+        <v>4.989047554065367</v>
       </c>
       <c r="F17">
-        <v>45.92298066448682</v>
+        <v>45.92298066448672</v>
       </c>
       <c r="G17">
-        <v>35.61496856903966</v>
+        <v>35.61496856903959</v>
       </c>
       <c r="H17">
-        <v>7.20802839130498</v>
+        <v>7.208028391305121</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1026,28 +1026,28 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.293650875627911</v>
+        <v>3.293650875627975</v>
       </c>
       <c r="E18">
-        <v>5.006926329823267</v>
+        <v>5.006926329823223</v>
       </c>
       <c r="F18">
-        <v>45.19651095444964</v>
+        <v>45.19651095444966</v>
       </c>
       <c r="G18">
-        <v>35.04078496823099</v>
+        <v>35.04078496823102</v>
       </c>
       <c r="H18">
-        <v>7.405903979247992</v>
+        <v>7.405903979247943</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>49.3003753945212</v>
+        <v>49.30037539452116</v>
       </c>
       <c r="K18">
-        <v>38.34010650738937</v>
+        <v>38.34010650738936</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.08592286103059</v>
+        <v>18.0859228610306</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.269865004185341</v>
+        <v>3.269865004185336</v>
       </c>
       <c r="E19">
-        <v>5.013044632614902</v>
+        <v>5.013044632614939</v>
       </c>
       <c r="F19">
-        <v>44.95036788622308</v>
+        <v>44.95036788622311</v>
       </c>
       <c r="G19">
         <v>34.84624768842792</v>
       </c>
       <c r="H19">
-        <v>7.472907986799791</v>
+        <v>7.472907986799774</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.07202329674612</v>
+        <v>49.07202329674617</v>
       </c>
       <c r="K19">
-        <v>38.15422550653103</v>
+        <v>38.15422550653102</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44841144609095</v>
+        <v>18.44841144609094</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.377178309342627</v>
+        <v>3.377178309342748</v>
       </c>
       <c r="E20">
-        <v>4.985769651318212</v>
+        <v>4.985769651318207</v>
       </c>
       <c r="F20">
-        <v>46.05736464444796</v>
+        <v>46.05736464444785</v>
       </c>
       <c r="G20">
-        <v>35.72118665481126</v>
+        <v>35.72118665481119</v>
       </c>
       <c r="H20">
-        <v>7.17140859960816</v>
+        <v>7.171408599608244</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>50.09520361306483</v>
+        <v>50.09520361306474</v>
       </c>
       <c r="K20">
-        <v>38.98773291797864</v>
+        <v>38.98773291797854</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63245815871096</v>
+        <v>19.63245815871091</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.743870412010485</v>
+        <v>3.743870412010357</v>
       </c>
       <c r="E21">
-        <v>4.898814562413589</v>
+        <v>4.898814562413517</v>
       </c>
       <c r="F21">
-        <v>49.7731455583037</v>
+        <v>49.77314555830367</v>
       </c>
       <c r="G21">
-        <v>38.65889872585806</v>
+        <v>38.65889872585802</v>
       </c>
       <c r="H21">
-        <v>6.158776393460788</v>
+        <v>6.158776393460816</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>53.46019226869699</v>
+        <v>53.46019226869693</v>
       </c>
       <c r="K21">
-        <v>41.74080273307107</v>
+        <v>41.74080273307105</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38241737643144</v>
+        <v>20.38241737643138</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.989947660821632</v>
+        <v>3.989947660821511</v>
       </c>
       <c r="E22">
-        <v>4.845738674551097</v>
+        <v>4.84573867455103</v>
       </c>
       <c r="F22">
-        <v>52.21053627263012</v>
+        <v>52.2105362726301</v>
       </c>
       <c r="G22">
-        <v>40.5869245601609</v>
+        <v>40.58692456016085</v>
       </c>
       <c r="H22">
-        <v>5.498117229449238</v>
+        <v>5.49811722944928</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>55.61172478645962</v>
+        <v>55.6117247864596</v>
       </c>
       <c r="K22">
-        <v>43.51122857587046</v>
+        <v>43.51122857587049</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.98423965901083</v>
+        <v>19.98423965901082</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.857890417317896</v>
+        <v>3.857890417317897</v>
       </c>
       <c r="E23">
-        <v>4.8737021323416</v>
+        <v>4.873702132341632</v>
       </c>
       <c r="F23">
-        <v>50.90799630122708</v>
+        <v>50.90799630122702</v>
       </c>
       <c r="G23">
-        <v>39.55647168235583</v>
+        <v>39.55647168235578</v>
       </c>
       <c r="H23">
-        <v>5.850483070237974</v>
+        <v>5.850483070238072</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>54.46730538728571</v>
+        <v>54.46730538728567</v>
       </c>
       <c r="K23">
-        <v>42.56849759691051</v>
+        <v>42.56849759691049</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42863584571313</v>
+        <v>18.42863584571312</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.371266280172795</v>
+        <v>3.371266280172752</v>
       </c>
       <c r="E24">
-        <v>4.987250373518599</v>
+        <v>4.987250373518721</v>
       </c>
       <c r="F24">
-        <v>45.99661294778237</v>
+        <v>45.99661294778242</v>
       </c>
       <c r="G24">
-        <v>35.67316788818774</v>
+        <v>35.67316788818778</v>
       </c>
       <c r="H24">
-        <v>7.187964047172906</v>
+        <v>7.187964047172997</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.03930404887191</v>
+        <v>50.03930404887198</v>
       </c>
       <c r="K24">
         <v>38.94215373399604</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.63986266236861</v>
+        <v>16.63986266236862</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.862834919362662</v>
+        <v>2.862834919362776</v>
       </c>
       <c r="E25">
-        <v>5.124362419125716</v>
+        <v>5.124362419125651</v>
       </c>
       <c r="F25">
-        <v>40.66835995416739</v>
+        <v>40.66835995416731</v>
       </c>
       <c r="G25">
-        <v>31.46227098652215</v>
+        <v>31.46227098652212</v>
       </c>
       <c r="H25">
         <v>8.633157610131578</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.01882238139022</v>
+        <v>45.01882238139019</v>
       </c>
       <c r="K25">
-        <v>34.86762453016647</v>
+        <v>34.86762453016644</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.21987522508412</v>
+        <v>15.2198752250841</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.493153941453542</v>
+        <v>2.493153941453499</v>
       </c>
       <c r="E2">
-        <v>5.236923754117047</v>
+        <v>5.236923754117051</v>
       </c>
       <c r="F2">
-        <v>36.66275471396494</v>
+        <v>36.66275471396499</v>
       </c>
       <c r="G2">
-        <v>28.29588045170772</v>
+        <v>28.29588045170774</v>
       </c>
       <c r="H2">
-        <v>9.705054315937504</v>
+        <v>9.705054315937607</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.07758164739551</v>
+        <v>41.07758164739556</v>
       </c>
       <c r="K2">
-        <v>31.69307333349652</v>
+        <v>31.69307333349657</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19025514222759</v>
+        <v>14.19025514222757</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.323696501376586</v>
+        <v>2.323696501376536</v>
       </c>
       <c r="E3">
-        <v>5.320192122554027</v>
+        <v>5.320192122554097</v>
       </c>
       <c r="F3">
-        <v>33.87805210311892</v>
+        <v>33.87805210311895</v>
       </c>
       <c r="G3">
-        <v>26.09280671925749</v>
+        <v>26.09280671925753</v>
       </c>
       <c r="H3">
-        <v>10.44067659580956</v>
+        <v>10.4406765958096</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.24054832224818</v>
+        <v>38.24054832224824</v>
       </c>
       <c r="K3">
-        <v>29.41940904727026</v>
+        <v>29.4194090472703</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.52401813196068</v>
+        <v>13.52401813196063</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.347938684628931</v>
+        <v>2.347938684628902</v>
       </c>
       <c r="E4">
-        <v>5.374718691488104</v>
+        <v>5.374718691488168</v>
       </c>
       <c r="F4">
-        <v>32.25189996672803</v>
+        <v>32.25189996672806</v>
       </c>
       <c r="G4">
-        <v>24.88959640552522</v>
+        <v>24.88959640552523</v>
       </c>
       <c r="H4">
-        <v>10.89833373017415</v>
+        <v>10.89833373017421</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.4130997632216</v>
+        <v>36.41309976322166</v>
       </c>
       <c r="K4">
-        <v>27.95940157776434</v>
+        <v>27.95940157776439</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.24384789043313</v>
+        <v>13.2438478904331</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.360913537146782</v>
+        <v>2.360913537146877</v>
       </c>
       <c r="E5">
-        <v>5.397789342609914</v>
+        <v>5.397789342610042</v>
       </c>
       <c r="F5">
-        <v>31.60020017661637</v>
+        <v>31.60020017661636</v>
       </c>
       <c r="G5">
         <v>24.41521851860059</v>
       </c>
       <c r="H5">
-        <v>11.08654168571209</v>
+        <v>11.08654168571222</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>35.64643759842519</v>
       </c>
       <c r="K5">
-        <v>27.34787033332194</v>
+        <v>27.34787033332197</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19679894901667</v>
+        <v>13.19679894901671</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.363241413538133</v>
+        <v>2.363241413538101</v>
       </c>
       <c r="E6">
-        <v>5.401671497651215</v>
+        <v>5.401671497651146</v>
       </c>
       <c r="F6">
-        <v>31.49171261808273</v>
+        <v>31.49171261808277</v>
       </c>
       <c r="G6">
-        <v>24.33639960026024</v>
+        <v>24.33639960026029</v>
       </c>
       <c r="H6">
-        <v>11.11790246739321</v>
+        <v>11.11790246739324</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.51779505823355</v>
+        <v>35.5177950582335</v>
       </c>
       <c r="K6">
-        <v>27.24531234460631</v>
+        <v>27.24531234460628</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.52027491532298</v>
+        <v>13.52027491532296</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.348101751423836</v>
+        <v>2.348101751423898</v>
       </c>
       <c r="E7">
-        <v>5.375026390235752</v>
+        <v>5.375026390235757</v>
       </c>
       <c r="F7">
         <v>32.24312934394533</v>
       </c>
       <c r="G7">
-        <v>24.8832021705396</v>
+        <v>24.88320217053962</v>
       </c>
       <c r="H7">
-        <v>10.90086478613118</v>
+        <v>10.90086478613119</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>36.40284978256162</v>
+        <v>36.40284978256164</v>
       </c>
       <c r="K7">
-        <v>27.9512219303163</v>
+        <v>27.95122193031631</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.87185702303878</v>
+        <v>14.8718570230388</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.406727926252101</v>
+        <v>2.406727926252107</v>
       </c>
       <c r="E8">
-        <v>5.264925924215697</v>
+        <v>5.264925924215566</v>
       </c>
       <c r="F8">
-        <v>35.71029618293882</v>
+        <v>35.71029618293885</v>
       </c>
       <c r="G8">
         <v>27.54259227225741</v>
       </c>
       <c r="H8">
-        <v>9.957581725293045</v>
+        <v>9.957581725292941</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.11682003827581</v>
+        <v>40.11682003827583</v>
       </c>
       <c r="K8">
-        <v>30.9220843970894</v>
+        <v>30.92208439708942</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.25794559429747</v>
+        <v>17.25794559429749</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.032827032074844</v>
+        <v>3.032827032074838</v>
       </c>
       <c r="E9">
-        <v>5.076326029478763</v>
+        <v>5.076326029478864</v>
       </c>
       <c r="F9">
-        <v>42.4728994051754</v>
+        <v>42.47289940517561</v>
       </c>
       <c r="G9">
-        <v>32.88834429592736</v>
+        <v>32.88834429592753</v>
       </c>
       <c r="H9">
-        <v>8.145664732928813</v>
+        <v>8.1456647329288</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>46.74596224847166</v>
+        <v>46.74596224847176</v>
       </c>
       <c r="K9">
-        <v>36.26522702801724</v>
+        <v>36.26522702801729</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85917069154333</v>
+        <v>18.85917069154328</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.501515214126749</v>
+        <v>3.501515214126823</v>
       </c>
       <c r="E10">
-        <v>4.955213280730384</v>
+        <v>4.955213280730479</v>
       </c>
       <c r="F10">
-        <v>47.32877680537866</v>
+        <v>47.32877680537868</v>
       </c>
       <c r="G10">
-        <v>36.72619902282084</v>
+        <v>36.72619902282089</v>
       </c>
       <c r="H10">
-        <v>6.824797965113619</v>
+        <v>6.824797965113781</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>51.25845275008484</v>
+        <v>51.25845275008487</v>
       </c>
       <c r="K10">
-        <v>39.93734510775126</v>
+        <v>39.93734510775131</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55715590000299</v>
+        <v>19.55715590000297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.719776913914471</v>
+        <v>3.719776913914387</v>
       </c>
       <c r="E11">
-        <v>4.904236669710619</v>
+        <v>4.904236669710712</v>
       </c>
       <c r="F11">
-        <v>49.53211331920841</v>
+        <v>49.53211331920851</v>
       </c>
       <c r="G11">
-        <v>38.46828647328853</v>
+        <v>38.46828647328859</v>
       </c>
       <c r="H11">
-        <v>6.224362497679353</v>
+        <v>6.224362497679294</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>53.2450725302425</v>
+        <v>53.24507253024259</v>
       </c>
       <c r="K11">
-        <v>41.56423572342429</v>
+        <v>41.5642357234243</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.81734396170877</v>
+        <v>19.8173439617088</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.80349225882403</v>
+        <v>3.80349225882402</v>
       </c>
       <c r="E12">
-        <v>4.885570667262651</v>
+        <v>4.885570667262582</v>
       </c>
       <c r="F12">
-        <v>50.36775865881103</v>
+        <v>50.36775865881086</v>
       </c>
       <c r="G12">
-        <v>39.1291642978585</v>
+        <v>39.12916429785836</v>
       </c>
       <c r="H12">
-        <v>5.997126691594268</v>
+        <v>5.997126691594282</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>53.98905104743055</v>
+        <v>53.98905104743039</v>
       </c>
       <c r="K12">
-        <v>42.17522303430392</v>
+        <v>42.17522303430376</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.785409088158318</v>
+        <v>3.785409088158194</v>
       </c>
       <c r="E13">
-        <v>4.889561422107282</v>
+        <v>4.889561422107139</v>
       </c>
       <c r="F13">
-        <v>50.18769082307499</v>
+        <v>50.18769082307496</v>
       </c>
       <c r="G13">
-        <v>38.98674737649956</v>
+        <v>38.98674737649951</v>
       </c>
       <c r="H13">
-        <v>6.046054869490796</v>
+        <v>6.046054869490712</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>53.82916966894764</v>
+        <v>53.82916966894766</v>
       </c>
       <c r="K13">
-        <v>42.04384031084552</v>
+        <v>42.04384031084557</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.57864277253278</v>
+        <v>19.5786427725328</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.726640677249324</v>
+        <v>3.726640677249279</v>
       </c>
       <c r="E14">
-        <v>4.902687894247753</v>
+        <v>4.902687894247824</v>
       </c>
       <c r="F14">
-        <v>49.60082255549164</v>
+        <v>49.60082255549165</v>
       </c>
       <c r="G14">
-        <v>38.52262203481096</v>
+        <v>38.52262203481097</v>
       </c>
       <c r="H14">
-        <v>6.205663272283923</v>
+        <v>6.205663272283935</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>53.30643885533319</v>
+        <v>53.30643885533327</v>
       </c>
       <c r="K14">
-        <v>41.61459614265858</v>
+        <v>41.61459614265861</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,28 +912,28 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.690793301171074</v>
+        <v>3.690793301171063</v>
       </c>
       <c r="E15">
-        <v>4.910812971436316</v>
+        <v>4.910812971436312</v>
       </c>
       <c r="F15">
-        <v>49.24158823264161</v>
+        <v>49.2415882326417</v>
       </c>
       <c r="G15">
-        <v>38.23854516586987</v>
+        <v>38.23854516586992</v>
       </c>
       <c r="H15">
-        <v>6.303453691203194</v>
+        <v>6.303453691203155</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>52.98520878832558</v>
+        <v>52.98520878832556</v>
       </c>
       <c r="K15">
-        <v>41.35104951769309</v>
+        <v>41.35104951769313</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.81296398744983</v>
+        <v>18.81296398744976</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.48738013993234</v>
+        <v>3.48738013993219</v>
       </c>
       <c r="E16">
-        <v>4.958631066138524</v>
+        <v>4.958631066138464</v>
       </c>
       <c r="F16">
         <v>47.18483791125465</v>
       </c>
       <c r="G16">
-        <v>36.61241195900586</v>
+        <v>36.61241195900585</v>
       </c>
       <c r="H16">
-        <v>6.864046016351077</v>
+        <v>6.864046016351234</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>51.12738845320374</v>
+        <v>51.12738845320373</v>
       </c>
       <c r="K16">
-        <v>39.83024290657868</v>
+        <v>39.83024290657871</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.4046491763801</v>
+        <v>18.40464917638015</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.36410432774538</v>
+        <v>3.364104327745371</v>
       </c>
       <c r="E17">
-        <v>4.989047554065367</v>
+        <v>4.989047554065261</v>
       </c>
       <c r="F17">
-        <v>45.92298066448672</v>
+        <v>45.92298066448682</v>
       </c>
       <c r="G17">
-        <v>35.61496856903959</v>
+        <v>35.61496856903966</v>
       </c>
       <c r="H17">
-        <v>7.208028391305121</v>
+        <v>7.20802839130498</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1026,28 +1026,28 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.293650875627975</v>
+        <v>3.293650875627911</v>
       </c>
       <c r="E18">
-        <v>5.006926329823223</v>
+        <v>5.006926329823267</v>
       </c>
       <c r="F18">
-        <v>45.19651095444966</v>
+        <v>45.19651095444964</v>
       </c>
       <c r="G18">
-        <v>35.04078496823102</v>
+        <v>35.04078496823099</v>
       </c>
       <c r="H18">
-        <v>7.405903979247943</v>
+        <v>7.405903979247992</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>49.30037539452116</v>
+        <v>49.3003753945212</v>
       </c>
       <c r="K18">
-        <v>38.34010650738936</v>
+        <v>38.34010650738937</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.0859228610306</v>
+        <v>18.08592286103059</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.269865004185336</v>
+        <v>3.269865004185341</v>
       </c>
       <c r="E19">
-        <v>5.013044632614939</v>
+        <v>5.013044632614902</v>
       </c>
       <c r="F19">
-        <v>44.95036788622311</v>
+        <v>44.95036788622308</v>
       </c>
       <c r="G19">
         <v>34.84624768842792</v>
       </c>
       <c r="H19">
-        <v>7.472907986799774</v>
+        <v>7.472907986799791</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.07202329674617</v>
+        <v>49.07202329674612</v>
       </c>
       <c r="K19">
-        <v>38.15422550653102</v>
+        <v>38.15422550653103</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44841144609094</v>
+        <v>18.44841144609095</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.377178309342748</v>
+        <v>3.377178309342627</v>
       </c>
       <c r="E20">
-        <v>4.985769651318207</v>
+        <v>4.985769651318212</v>
       </c>
       <c r="F20">
-        <v>46.05736464444785</v>
+        <v>46.05736464444796</v>
       </c>
       <c r="G20">
-        <v>35.72118665481119</v>
+        <v>35.72118665481126</v>
       </c>
       <c r="H20">
-        <v>7.171408599608244</v>
+        <v>7.17140859960816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>50.09520361306474</v>
+        <v>50.09520361306483</v>
       </c>
       <c r="K20">
-        <v>38.98773291797854</v>
+        <v>38.98773291797864</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63245815871091</v>
+        <v>19.63245815871096</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.743870412010357</v>
+        <v>3.743870412010485</v>
       </c>
       <c r="E21">
-        <v>4.898814562413517</v>
+        <v>4.898814562413589</v>
       </c>
       <c r="F21">
-        <v>49.77314555830367</v>
+        <v>49.7731455583037</v>
       </c>
       <c r="G21">
-        <v>38.65889872585802</v>
+        <v>38.65889872585806</v>
       </c>
       <c r="H21">
-        <v>6.158776393460816</v>
+        <v>6.158776393460788</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>53.46019226869693</v>
+        <v>53.46019226869699</v>
       </c>
       <c r="K21">
-        <v>41.74080273307105</v>
+        <v>41.74080273307107</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38241737643138</v>
+        <v>20.38241737643144</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.989947660821511</v>
+        <v>3.989947660821632</v>
       </c>
       <c r="E22">
-        <v>4.84573867455103</v>
+        <v>4.845738674551097</v>
       </c>
       <c r="F22">
-        <v>52.2105362726301</v>
+        <v>52.21053627263012</v>
       </c>
       <c r="G22">
-        <v>40.58692456016085</v>
+        <v>40.5869245601609</v>
       </c>
       <c r="H22">
-        <v>5.49811722944928</v>
+        <v>5.498117229449238</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>55.6117247864596</v>
+        <v>55.61172478645962</v>
       </c>
       <c r="K22">
-        <v>43.51122857587049</v>
+        <v>43.51122857587046</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.98423965901082</v>
+        <v>19.98423965901083</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.857890417317897</v>
+        <v>3.857890417317896</v>
       </c>
       <c r="E23">
-        <v>4.873702132341632</v>
+        <v>4.8737021323416</v>
       </c>
       <c r="F23">
-        <v>50.90799630122702</v>
+        <v>50.90799630122708</v>
       </c>
       <c r="G23">
-        <v>39.55647168235578</v>
+        <v>39.55647168235583</v>
       </c>
       <c r="H23">
-        <v>5.850483070238072</v>
+        <v>5.850483070237974</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>54.46730538728567</v>
+        <v>54.46730538728571</v>
       </c>
       <c r="K23">
-        <v>42.56849759691049</v>
+        <v>42.56849759691051</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42863584571312</v>
+        <v>18.42863584571313</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.371266280172752</v>
+        <v>3.371266280172795</v>
       </c>
       <c r="E24">
-        <v>4.987250373518721</v>
+        <v>4.987250373518599</v>
       </c>
       <c r="F24">
-        <v>45.99661294778242</v>
+        <v>45.99661294778237</v>
       </c>
       <c r="G24">
-        <v>35.67316788818778</v>
+        <v>35.67316788818774</v>
       </c>
       <c r="H24">
-        <v>7.187964047172997</v>
+        <v>7.187964047172906</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.03930404887198</v>
+        <v>50.03930404887191</v>
       </c>
       <c r="K24">
         <v>38.94215373399604</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.63986266236862</v>
+        <v>16.63986266236861</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.862834919362776</v>
+        <v>2.862834919362662</v>
       </c>
       <c r="E25">
-        <v>5.124362419125651</v>
+        <v>5.124362419125716</v>
       </c>
       <c r="F25">
-        <v>40.66835995416731</v>
+        <v>40.66835995416739</v>
       </c>
       <c r="G25">
-        <v>31.46227098652212</v>
+        <v>31.46227098652215</v>
       </c>
       <c r="H25">
         <v>8.633157610131578</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.01882238139019</v>
+        <v>45.01882238139022</v>
       </c>
       <c r="K25">
-        <v>34.86762453016644</v>
+        <v>34.86762453016647</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.2198752250841</v>
+        <v>15.22137049689171</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.493153941453499</v>
+        <v>2.48678429495919</v>
       </c>
       <c r="E2">
-        <v>5.236923754117051</v>
+        <v>5.231545050469334</v>
       </c>
       <c r="F2">
-        <v>36.66275471396499</v>
+        <v>36.631879635587</v>
       </c>
       <c r="G2">
-        <v>28.29588045170774</v>
+        <v>28.33861527038739</v>
       </c>
       <c r="H2">
-        <v>9.705054315937607</v>
+        <v>28.15670751875223</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.707831634609486</v>
       </c>
       <c r="J2">
-        <v>41.07758164739556</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>31.69307333349657</v>
+        <v>41.06615405094031</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31.68520380170654</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19025514222757</v>
+        <v>14.19171392537484</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.323696501376536</v>
+        <v>2.319276504725272</v>
       </c>
       <c r="E3">
-        <v>5.320192122554097</v>
+        <v>5.31571609438009</v>
       </c>
       <c r="F3">
-        <v>33.87805210311895</v>
+        <v>33.84977273929884</v>
       </c>
       <c r="G3">
-        <v>26.09280671925753</v>
+        <v>26.13252558526212</v>
       </c>
       <c r="H3">
-        <v>10.4406765958096</v>
+        <v>26.09088055284837</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.44270474579575</v>
       </c>
       <c r="J3">
-        <v>38.24054832224824</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.4194090472703</v>
+        <v>38.23033915553414</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>29.41241095919923</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.52401813196063</v>
+        <v>13.52544665603368</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.347938684628902</v>
+        <v>2.343967198355751</v>
       </c>
       <c r="E4">
-        <v>5.374718691488168</v>
+        <v>5.37080464446194</v>
       </c>
       <c r="F4">
-        <v>32.25189996672806</v>
+        <v>32.22618579526094</v>
       </c>
       <c r="G4">
-        <v>24.88959640552523</v>
+        <v>24.7461516528027</v>
       </c>
       <c r="H4">
-        <v>10.89833373017421</v>
+        <v>24.92727480703127</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.89993521149097</v>
       </c>
       <c r="J4">
-        <v>36.41309976322166</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>27.95940157776439</v>
+        <v>36.40363810464425</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>27.95293051777366</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.2438478904331</v>
+        <v>13.24526227374236</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.360913537146877</v>
+        <v>2.357115269676664</v>
       </c>
       <c r="E5">
-        <v>5.397789342610042</v>
+        <v>5.394106500423212</v>
       </c>
       <c r="F5">
-        <v>31.60020017661636</v>
+        <v>31.57513682611674</v>
       </c>
       <c r="G5">
-        <v>24.41521851860059</v>
+        <v>24.1728402502643</v>
       </c>
       <c r="H5">
-        <v>11.08654168571222</v>
+        <v>24.45221313317748</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.08797569237024</v>
       </c>
       <c r="J5">
-        <v>35.64643759842519</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>27.34787033332197</v>
+        <v>35.63728179736433</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27.34161311143081</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19679894901671</v>
+        <v>13.19821087930786</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.363241413538101</v>
+        <v>2.359471334027404</v>
       </c>
       <c r="E6">
-        <v>5.401671497651146</v>
+        <v>5.398027185871208</v>
       </c>
       <c r="F6">
-        <v>31.49171261808277</v>
+        <v>31.46675747430336</v>
       </c>
       <c r="G6">
-        <v>24.33639960026029</v>
+        <v>24.07713069858935</v>
       </c>
       <c r="H6">
-        <v>11.11790246739324</v>
+        <v>24.37328042933394</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.11930900173408</v>
       </c>
       <c r="J6">
-        <v>35.5177950582335</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>27.24531234460628</v>
+        <v>35.50869015749865</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>27.23909060319689</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.52027491532296</v>
+        <v>13.5217032558169</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.348101751423898</v>
+        <v>2.34413263991022</v>
       </c>
       <c r="E7">
-        <v>5.375026390235757</v>
+        <v>5.371115452138222</v>
       </c>
       <c r="F7">
-        <v>32.24312934394533</v>
+        <v>32.2174239412857</v>
       </c>
       <c r="G7">
-        <v>24.88320217053962</v>
+        <v>24.73845394095604</v>
       </c>
       <c r="H7">
-        <v>10.90086478613119</v>
+        <v>24.92087136749742</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.90246398522287</v>
       </c>
       <c r="J7">
-        <v>36.40284978256164</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>27.95122193031631</v>
+        <v>36.39339224212556</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>27.94475375665707</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.8718570230388</v>
+        <v>14.87334145187682</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.406727926252107</v>
+        <v>2.400542166131367</v>
       </c>
       <c r="E8">
-        <v>5.264925924215566</v>
+        <v>5.259857019573445</v>
       </c>
       <c r="F8">
-        <v>35.71029618293885</v>
+        <v>35.68031768013726</v>
       </c>
       <c r="G8">
-        <v>27.54259227225741</v>
+        <v>27.58430000647063</v>
       </c>
       <c r="H8">
-        <v>9.957581725292941</v>
+        <v>27.43046626040114</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.960092463288191</v>
       </c>
       <c r="J8">
-        <v>40.11682003827583</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>30.92208439708942</v>
+        <v>40.10581357838668</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>30.91451771904399</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.25794559429749</v>
+        <v>17.25946849139394</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.032827032074838</v>
+        <v>3.025310067845211</v>
       </c>
       <c r="E9">
-        <v>5.076326029478864</v>
+        <v>5.069033945384487</v>
       </c>
       <c r="F9">
-        <v>42.47289940517561</v>
+        <v>42.43632649044326</v>
       </c>
       <c r="G9">
-        <v>32.88834429592753</v>
+        <v>32.93721027751428</v>
       </c>
       <c r="H9">
-        <v>8.1456647329288</v>
+        <v>32.60998865692336</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8.150350884219648</v>
       </c>
       <c r="J9">
-        <v>46.74596224847176</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>36.26522702801729</v>
+        <v>46.73183921261217</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>36.2553822582837</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85917069154328</v>
+        <v>18.86066156936216</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.501515214126823</v>
+        <v>3.492994029323287</v>
       </c>
       <c r="E10">
-        <v>4.955213280730479</v>
+        <v>4.946291820375513</v>
       </c>
       <c r="F10">
-        <v>47.32877680537868</v>
+        <v>47.28707508758098</v>
       </c>
       <c r="G10">
-        <v>36.72619902282089</v>
+        <v>36.77994916923797</v>
       </c>
       <c r="H10">
-        <v>6.824797965113781</v>
+        <v>36.3570667700348</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.831577657933696</v>
       </c>
       <c r="J10">
-        <v>51.25845275008487</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>39.93734510775131</v>
+        <v>51.24186199074019</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.92564320575618</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55715590000297</v>
+        <v>19.55861377002344</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.719776913914387</v>
+        <v>3.710781972926045</v>
       </c>
       <c r="E11">
-        <v>4.904236669710712</v>
+        <v>4.894566780638727</v>
       </c>
       <c r="F11">
-        <v>49.53211331920851</v>
+        <v>49.48794810541108</v>
       </c>
       <c r="G11">
-        <v>38.46828647328859</v>
+        <v>38.52415715183241</v>
       </c>
       <c r="H11">
-        <v>6.224362497679294</v>
+        <v>38.06363131067832</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.232302388660221</v>
       </c>
       <c r="J11">
-        <v>53.24507253024259</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>41.5642357234243</v>
+        <v>53.2272803237742</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>41.55161492312283</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.8173439617088</v>
+        <v>19.81878604865262</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.80349225882402</v>
+        <v>3.794314153048868</v>
       </c>
       <c r="E12">
-        <v>4.885570667262582</v>
+        <v>4.875615374163683</v>
       </c>
       <c r="F12">
-        <v>50.36775865881086</v>
+        <v>50.32263369070427</v>
       </c>
       <c r="G12">
-        <v>39.12916429785836</v>
+        <v>39.18582085211938</v>
       </c>
       <c r="H12">
-        <v>5.997126691594282</v>
+        <v>38.71181673286362</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.005549678056251</v>
       </c>
       <c r="J12">
-        <v>53.98905104743039</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>42.17522303430376</v>
+        <v>53.97078789620255</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>42.16223960822823</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76148671572424</v>
+        <v>19.76293236015917</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.785409088158194</v>
+        <v>3.776270623416305</v>
       </c>
       <c r="E13">
-        <v>4.889561422107139</v>
+        <v>4.879667703040173</v>
       </c>
       <c r="F13">
-        <v>50.18769082307496</v>
+        <v>50.14277390900707</v>
       </c>
       <c r="G13">
-        <v>38.98674737649951</v>
+        <v>39.04323549222085</v>
       </c>
       <c r="H13">
-        <v>6.046054869490712</v>
+        <v>38.5721006164241</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.054371573452308</v>
       </c>
       <c r="J13">
-        <v>53.82916966894766</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>42.04384031084557</v>
+        <v>53.81100874442324</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>42.03093571233057</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.5786427725328</v>
+        <v>19.58009941422767</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.726640677249279</v>
+        <v>3.717630751757973</v>
       </c>
       <c r="E14">
-        <v>4.902687894247824</v>
+        <v>4.892994571301833</v>
       </c>
       <c r="F14">
-        <v>49.60082255549165</v>
+        <v>49.55657897689195</v>
       </c>
       <c r="G14">
-        <v>38.52262203481097</v>
+        <v>38.5785577294843</v>
       </c>
       <c r="H14">
-        <v>6.205663272283935</v>
+        <v>38.11690781837359</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.213641927809423</v>
       </c>
       <c r="J14">
-        <v>53.30643885533327</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>41.61459614265861</v>
+        <v>53.28860825597517</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.60194583020043</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.46611676902292</v>
+        <v>19.46757969703523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.690793301171063</v>
+        <v>3.681861572872204</v>
       </c>
       <c r="E15">
-        <v>4.910812971436312</v>
+        <v>4.901242104051283</v>
       </c>
       <c r="F15">
-        <v>49.2415882326417</v>
+        <v>49.19775330481065</v>
       </c>
       <c r="G15">
-        <v>38.23854516586992</v>
+        <v>38.29414016272892</v>
       </c>
       <c r="H15">
-        <v>6.303453691203155</v>
+        <v>37.8383993218077</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.311231503101043</v>
       </c>
       <c r="J15">
-        <v>52.98520878832556</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>41.35104951769313</v>
+        <v>52.96757827936863</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>41.33855291340766</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.81296398744976</v>
+        <v>18.81445660165015</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.48738013993219</v>
+        <v>3.478889471101113</v>
       </c>
       <c r="E16">
-        <v>4.958631066138464</v>
+        <v>4.949758297523212</v>
       </c>
       <c r="F16">
-        <v>47.18483791125465</v>
+        <v>47.14329392631523</v>
       </c>
       <c r="G16">
-        <v>36.61241195900585</v>
+        <v>36.6660212891372</v>
       </c>
       <c r="H16">
-        <v>6.864046016351234</v>
+        <v>36.24571112679082</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.870755115937182</v>
       </c>
       <c r="J16">
-        <v>51.12738845320373</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>39.83024290657871</v>
+        <v>51.11087425802602</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39.81859925081031</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.40464917638015</v>
+        <v>18.40615488700653</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.364104327745371</v>
+        <v>3.355879074929022</v>
       </c>
       <c r="E17">
-        <v>4.989047554065261</v>
+        <v>4.980600610674216</v>
       </c>
       <c r="F17">
-        <v>45.92298066448682</v>
+        <v>45.88280366981157</v>
       </c>
       <c r="G17">
-        <v>35.61496856903966</v>
+        <v>35.6673322874698</v>
       </c>
       <c r="H17">
-        <v>7.20802839130498</v>
+        <v>35.27021046654717</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>7.214143140659263</v>
       </c>
       <c r="J17">
-        <v>49.97151363062792</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>38.88688560600475</v>
+        <v>49.95566116193832</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>38.87574374422343</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.16691667288178</v>
+        <v>18.16842822755769</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.293650875627911</v>
+        <v>3.285576788894222</v>
       </c>
       <c r="E18">
-        <v>5.006926329823267</v>
+        <v>4.99872370203162</v>
       </c>
       <c r="F18">
-        <v>45.19651095444964</v>
+        <v>45.15710855365309</v>
       </c>
       <c r="G18">
-        <v>35.04078496823099</v>
+        <v>35.09242290673662</v>
       </c>
       <c r="H18">
-        <v>7.405903979247992</v>
+        <v>34.70919460787016</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>7.411695329118722</v>
       </c>
       <c r="J18">
-        <v>49.3003753945212</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>38.34010650738937</v>
+        <v>49.28489645365421</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>38.32924658987105</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.08592286103059</v>
+        <v>18.08743612060012</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.269865004185341</v>
+        <v>3.261841877170567</v>
       </c>
       <c r="E19">
-        <v>5.013044632614902</v>
+        <v>5.004924645795199</v>
       </c>
       <c r="F19">
-        <v>44.95036788622308</v>
+        <v>44.91122595515987</v>
       </c>
       <c r="G19">
-        <v>34.84624768842792</v>
+        <v>34.89763834915675</v>
       </c>
       <c r="H19">
-        <v>7.472907986799791</v>
+        <v>34.51921191575404</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>7.478592681909488</v>
       </c>
       <c r="J19">
-        <v>49.07202329674612</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>38.15422550653103</v>
+        <v>49.05666973023871</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>38.14346000735746</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44841144609095</v>
+        <v>18.44991594131839</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.377178309342627</v>
+        <v>3.368924965521985</v>
       </c>
       <c r="E20">
-        <v>4.985769651318212</v>
+        <v>4.977277446956763</v>
       </c>
       <c r="F20">
-        <v>46.05736464444796</v>
+        <v>46.0170433894003</v>
       </c>
       <c r="G20">
-        <v>35.72118665481126</v>
+        <v>35.77368395245689</v>
       </c>
       <c r="H20">
-        <v>7.17140859960816</v>
+        <v>35.37403665083049</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>7.177584627556974</v>
       </c>
       <c r="J20">
-        <v>50.09520361306483</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>38.98773291797864</v>
+        <v>50.07928146453226</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.97653835535566</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63245815871096</v>
+        <v>19.6339116654138</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.743870412010485</v>
+        <v>3.734822846298463</v>
       </c>
       <c r="E21">
-        <v>4.898814562413589</v>
+        <v>4.889062441469227</v>
       </c>
       <c r="F21">
-        <v>49.7731455583037</v>
+        <v>49.72870501227804</v>
       </c>
       <c r="G21">
-        <v>38.65889872585806</v>
+        <v>38.71499717043816</v>
       </c>
       <c r="H21">
-        <v>6.158776393460788</v>
+        <v>38.2505407197121</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.166853010992214</v>
       </c>
       <c r="J21">
-        <v>53.46019226869699</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>41.74080273307107</v>
+        <v>53.44226512271958</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.72807816674496</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38241737643144</v>
+        <v>20.38381796192633</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.989947660821632</v>
+        <v>3.980358126487293</v>
       </c>
       <c r="E22">
-        <v>4.845738674551097</v>
+        <v>4.835150823664113</v>
       </c>
       <c r="F22">
-        <v>52.21053627263012</v>
+        <v>52.16324095159318</v>
       </c>
       <c r="G22">
-        <v>40.5869245601609</v>
+        <v>40.64527467594088</v>
       </c>
       <c r="H22">
-        <v>5.498117229449238</v>
+        <v>40.14296195345374</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.507702938918325</v>
       </c>
       <c r="J22">
-        <v>55.61172478645962</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>43.51122857587046</v>
+        <v>55.59239079333864</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>43.49741573626688</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.98423965901083</v>
+        <v>19.98567054891204</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.857890417317896</v>
+        <v>3.848592797133632</v>
       </c>
       <c r="E23">
-        <v>4.8737021323416</v>
+        <v>4.863561857053409</v>
       </c>
       <c r="F23">
-        <v>50.90799630122708</v>
+        <v>50.86224293376276</v>
       </c>
       <c r="G23">
-        <v>39.55647168235583</v>
+        <v>39.61363051514429</v>
       </c>
       <c r="H23">
-        <v>5.850483070237974</v>
+        <v>39.13113087646824</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.859232437841856</v>
       </c>
       <c r="J23">
-        <v>54.46730538728571</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>42.56849759691051</v>
+        <v>54.44873301881606</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>42.55527535414896</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42863584571313</v>
+        <v>18.43014089562688</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.371266280172795</v>
+        <v>3.363025640639931</v>
       </c>
       <c r="E24">
-        <v>4.987250373518599</v>
+        <v>4.97877863312269</v>
       </c>
       <c r="F24">
-        <v>45.99661294778237</v>
+        <v>45.95635694749173</v>
       </c>
       <c r="G24">
-        <v>35.67316788818774</v>
+        <v>35.72560482458569</v>
       </c>
       <c r="H24">
-        <v>7.187964047172906</v>
+        <v>35.32709753629808</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7.194112315013249</v>
       </c>
       <c r="J24">
-        <v>50.03930404887191</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>38.94215373399604</v>
+        <v>50.0234134237819</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.93098301752186</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.63986266236861</v>
+        <v>16.6413842831456</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.862834919362662</v>
+        <v>2.855679649800303</v>
       </c>
       <c r="E25">
-        <v>5.124362419125716</v>
+        <v>5.117668882022686</v>
       </c>
       <c r="F25">
-        <v>40.66835995416739</v>
+        <v>40.63360232877941</v>
       </c>
       <c r="G25">
-        <v>31.46227098652215</v>
+        <v>31.5092610199355</v>
       </c>
       <c r="H25">
-        <v>8.633157610131578</v>
+        <v>31.22298678361909</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>8.637192705704274</v>
       </c>
       <c r="J25">
-        <v>45.01882238139022</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>34.86762453016647</v>
+        <v>45.00556260996743</v>
       </c>
       <c r="L25">
+        <v>34.85841889671794</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.22137049689171</v>
+        <v>7.269504521002876</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.48678429495919</v>
+        <v>7.360470236228127</v>
       </c>
       <c r="E2">
-        <v>5.231545050469334</v>
+        <v>6.607249365386282</v>
       </c>
       <c r="F2">
-        <v>36.631879635587</v>
+        <v>59.25814382395026</v>
       </c>
       <c r="G2">
-        <v>28.33861527038739</v>
+        <v>2.024650831447607</v>
       </c>
       <c r="H2">
-        <v>28.15670751875223</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.707831634609486</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.107392778229849</v>
       </c>
       <c r="K2">
-        <v>41.06615405094031</v>
+        <v>46.01488277958732</v>
       </c>
       <c r="L2">
-        <v>31.68520380170654</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>29.30338671532336</v>
+      </c>
+      <c r="N2">
+        <v>12.35418384694039</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19171392537484</v>
+        <v>6.905210982696722</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.319276504725272</v>
+        <v>6.762347304610344</v>
       </c>
       <c r="E3">
-        <v>5.31571609438009</v>
+        <v>6.398740764157431</v>
       </c>
       <c r="F3">
-        <v>33.84977273929884</v>
+        <v>55.80779747928241</v>
       </c>
       <c r="G3">
-        <v>26.13252558526212</v>
+        <v>2.050295362190868</v>
       </c>
       <c r="H3">
-        <v>26.09088055284837</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.44270474579575</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.189032064427136</v>
       </c>
       <c r="K3">
-        <v>38.23033915553414</v>
+        <v>42.46297702378919</v>
       </c>
       <c r="L3">
-        <v>29.41241095919923</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.08373344065251</v>
+      </c>
+      <c r="N3">
+        <v>12.76623449531279</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.52544665603368</v>
+        <v>6.676032795647446</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.343967198355751</v>
+        <v>6.388026259680929</v>
       </c>
       <c r="E4">
-        <v>5.37080464446194</v>
+        <v>6.273062943636908</v>
       </c>
       <c r="F4">
-        <v>32.22618579526094</v>
+        <v>53.72930138023482</v>
       </c>
       <c r="G4">
-        <v>24.7461516528027</v>
+        <v>2.065969194429256</v>
       </c>
       <c r="H4">
-        <v>24.92727480703127</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.89993521149097</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.239850765374016</v>
       </c>
       <c r="K4">
-        <v>36.40363810464425</v>
+        <v>40.21937698217901</v>
       </c>
       <c r="L4">
-        <v>27.95293051777366</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>25.91348634892434</v>
+      </c>
+      <c r="N4">
+        <v>13.01712566706452</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.24526227374236</v>
+        <v>6.581359553131978</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.357115269676664</v>
+        <v>6.233309149931821</v>
       </c>
       <c r="E5">
-        <v>5.394106500423212</v>
+        <v>6.222261044527515</v>
       </c>
       <c r="F5">
-        <v>31.57513682611674</v>
+        <v>52.89111091721684</v>
       </c>
       <c r="G5">
-        <v>24.1728402502643</v>
+        <v>2.072361153968945</v>
       </c>
       <c r="H5">
-        <v>24.45221313317748</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.08797569237024</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.260771591474675</v>
       </c>
       <c r="K5">
-        <v>35.63728179736433</v>
+        <v>39.28776189421663</v>
       </c>
       <c r="L5">
-        <v>27.34161311143081</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.43294788544421</v>
+      </c>
+      <c r="N5">
+        <v>13.11914742313036</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19821087930786</v>
+        <v>6.565565211297876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.359471334027404</v>
+        <v>6.207476566109457</v>
       </c>
       <c r="E6">
-        <v>5.398027185871208</v>
+        <v>6.213845886445657</v>
       </c>
       <c r="F6">
-        <v>31.46675747430336</v>
+        <v>52.75243607325282</v>
       </c>
       <c r="G6">
-        <v>24.07713069858935</v>
+        <v>2.07342341310074</v>
       </c>
       <c r="H6">
-        <v>24.37328042933394</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.11930900173408</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.264259268632534</v>
       </c>
       <c r="K6">
-        <v>35.50869015749865</v>
+        <v>39.13198222789745</v>
       </c>
       <c r="L6">
-        <v>27.23909060319689</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.35292585072116</v>
+      </c>
+      <c r="N6">
+        <v>13.13608300508997</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.5217032558169</v>
+        <v>6.674761034085027</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.34413263991022</v>
+        <v>6.38594898749317</v>
       </c>
       <c r="E7">
-        <v>5.371115452138222</v>
+        <v>6.27237634678376</v>
       </c>
       <c r="F7">
-        <v>32.2174239412857</v>
+        <v>53.71796282036955</v>
       </c>
       <c r="G7">
-        <v>24.73845394095604</v>
+        <v>2.066055352144732</v>
       </c>
       <c r="H7">
-        <v>24.92087136749742</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10.90246398522287</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.240132007578879</v>
       </c>
       <c r="K7">
-        <v>36.39339224212556</v>
+        <v>40.20688487138927</v>
       </c>
       <c r="L7">
-        <v>27.94475375665707</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25.90702084295408</v>
+      </c>
+      <c r="N7">
+        <v>13.01850207824169</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.87334145187682</v>
+        <v>7.145091020057974</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.400542166131367</v>
+        <v>7.155439609436757</v>
       </c>
       <c r="E8">
-        <v>5.259857019573445</v>
+        <v>6.534748428834158</v>
       </c>
       <c r="F8">
-        <v>35.68031768013726</v>
+        <v>58.0592140357632</v>
       </c>
       <c r="G8">
-        <v>27.58430000647063</v>
+        <v>2.033523164298691</v>
       </c>
       <c r="H8">
-        <v>27.43046626040114</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>9.960092463288191</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.135423149456905</v>
       </c>
       <c r="K8">
-        <v>40.10581357838668</v>
+        <v>44.80214546744062</v>
       </c>
       <c r="L8">
-        <v>30.91451771904399</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>28.52835963611557</v>
+      </c>
+      <c r="N8">
+        <v>12.49690264527502</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.25946849139394</v>
+        <v>8.020642246157534</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.025310067845211</v>
+        <v>8.631513258276112</v>
       </c>
       <c r="E9">
-        <v>5.069033945384487</v>
+        <v>7.07868824102988</v>
       </c>
       <c r="F9">
-        <v>42.43632649044326</v>
+        <v>66.98535667238318</v>
       </c>
       <c r="G9">
-        <v>32.93721027751428</v>
+        <v>1.967832636030802</v>
       </c>
       <c r="H9">
-        <v>32.60998865692336</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.150350884219648</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.933466315833955</v>
       </c>
       <c r="K9">
-        <v>46.73183921261217</v>
+        <v>53.41022238158304</v>
       </c>
       <c r="L9">
-        <v>36.2553822582837</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.01854864525329</v>
+      </c>
+      <c r="N9">
+        <v>11.43947847914525</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.86066156936216</v>
+        <v>8.703507885152325</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.492994029323287</v>
+        <v>9.740844865963846</v>
       </c>
       <c r="E10">
-        <v>4.946291820375513</v>
+        <v>7.518196710424621</v>
       </c>
       <c r="F10">
-        <v>47.28707508758098</v>
+        <v>74.27501828317938</v>
       </c>
       <c r="G10">
-        <v>36.77994916923797</v>
+        <v>1.915860670696221</v>
       </c>
       <c r="H10">
-        <v>36.3570667700348</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>6.831577657933696</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.783255785721803</v>
       </c>
       <c r="K10">
-        <v>51.24186199074019</v>
+        <v>59.6756967103656</v>
       </c>
       <c r="L10">
-        <v>39.92564320575618</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.99956890817007</v>
+      </c>
+      <c r="N10">
+        <v>10.60775644555551</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55861377002344</v>
+        <v>9.030416115193816</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.710781972926045</v>
+        <v>10.26699278879402</v>
       </c>
       <c r="E11">
-        <v>4.894566780638727</v>
+        <v>7.735033320452525</v>
       </c>
       <c r="F11">
-        <v>49.48794810541108</v>
+        <v>77.8358363982196</v>
       </c>
       <c r="G11">
-        <v>38.52415715183241</v>
+        <v>1.890502007209173</v>
       </c>
       <c r="H11">
-        <v>38.06363131067832</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6.232302388660221</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.713217840209645</v>
       </c>
       <c r="K11">
-        <v>53.2272803237742</v>
+        <v>62.58087253168825</v>
       </c>
       <c r="L11">
-        <v>41.55161492312283</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.84124169442745</v>
+      </c>
+      <c r="N11">
+        <v>10.2057644851628</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.81878604865262</v>
+        <v>9.152362668601139</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.794314153048868</v>
+        <v>10.47147847160979</v>
       </c>
       <c r="E12">
-        <v>4.875615374163683</v>
+        <v>7.820709511376204</v>
       </c>
       <c r="F12">
-        <v>50.32263369070427</v>
+        <v>79.22230898457097</v>
       </c>
       <c r="G12">
-        <v>39.18582085211938</v>
+        <v>1.880531374141854</v>
       </c>
       <c r="H12">
-        <v>38.71181673286362</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>6.005549678056251</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.686285502550805</v>
       </c>
       <c r="K12">
-        <v>53.97078789620255</v>
+        <v>63.69794193079586</v>
       </c>
       <c r="L12">
-        <v>42.16223960822823</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>40.54864178334048</v>
+      </c>
+      <c r="N12">
+        <v>10.04861768514276</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76293236015917</v>
+        <v>9.126177740076216</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.776270623416305</v>
+        <v>10.42715983850403</v>
       </c>
       <c r="E13">
-        <v>4.879667703040173</v>
+        <v>7.802074652847514</v>
       </c>
       <c r="F13">
-        <v>50.14277390900707</v>
+        <v>78.92174110260304</v>
       </c>
       <c r="G13">
-        <v>39.04323549222085</v>
+        <v>1.882697650518256</v>
       </c>
       <c r="H13">
-        <v>38.5721006164241</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>6.054371573452308</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.692107525260961</v>
       </c>
       <c r="K13">
-        <v>53.81100874442324</v>
+        <v>63.45641600890811</v>
       </c>
       <c r="L13">
-        <v>42.03093571233057</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40.39572767277944</v>
+      </c>
+      <c r="N13">
+        <v>10.08271272697545</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.58009941422767</v>
+        <v>9.040484440976831</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.717630751757973</v>
+        <v>10.28369478884773</v>
       </c>
       <c r="E14">
-        <v>4.892994571301833</v>
+        <v>7.742001948755281</v>
       </c>
       <c r="F14">
-        <v>49.55657897689195</v>
+        <v>77.9490435829653</v>
       </c>
       <c r="G14">
-        <v>38.5785577294843</v>
+        <v>1.889689989013155</v>
       </c>
       <c r="H14">
-        <v>38.11690781837359</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>6.213641927809423</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.711011525661195</v>
       </c>
       <c r="K14">
-        <v>53.28860825597517</v>
+        <v>62.67236771631208</v>
       </c>
       <c r="L14">
-        <v>41.60194583020043</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.8991980528724</v>
+      </c>
+      <c r="N14">
+        <v>10.19294572762551</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.46757969703523</v>
+        <v>8.987760945486393</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.681861572872204</v>
+        <v>10.19658255560788</v>
       </c>
       <c r="E15">
-        <v>4.901242104051283</v>
+        <v>7.705713209298132</v>
       </c>
       <c r="F15">
-        <v>49.19775330481065</v>
+        <v>77.35868055017195</v>
       </c>
       <c r="G15">
-        <v>38.29414016272892</v>
+        <v>1.893920538486037</v>
       </c>
       <c r="H15">
-        <v>37.8383993218077</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6.311231503101043</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.722531233785103</v>
       </c>
       <c r="K15">
-        <v>52.96757827936863</v>
+        <v>62.19466230254733</v>
       </c>
       <c r="L15">
-        <v>41.33855291340766</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>39.59657150205283</v>
+      </c>
+      <c r="N15">
+        <v>10.25976908737398</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.81445660165015</v>
+        <v>8.681873875328984</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.478889471101113</v>
+        <v>9.707055235051044</v>
       </c>
       <c r="E16">
-        <v>4.949758297523212</v>
+        <v>7.504451174508691</v>
       </c>
       <c r="F16">
-        <v>47.14329392631523</v>
+        <v>74.04681211318359</v>
       </c>
       <c r="G16">
-        <v>36.6660212891372</v>
+        <v>1.91747422040239</v>
       </c>
       <c r="H16">
-        <v>36.24571112679082</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>6.870755115937182</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.787785940964925</v>
       </c>
       <c r="K16">
-        <v>51.11087425802602</v>
+        <v>59.48762627784908</v>
       </c>
       <c r="L16">
-        <v>39.81859925081031</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>37.88025158227056</v>
+      </c>
+      <c r="N16">
+        <v>10.63343600464047</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.40615488700653</v>
+        <v>8.490718906958241</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.355879074929022</v>
+        <v>9.413507796854423</v>
       </c>
       <c r="E17">
-        <v>4.980600610674216</v>
+        <v>7.385965744300052</v>
       </c>
       <c r="F17">
-        <v>45.88280366981157</v>
+        <v>72.06755079175079</v>
       </c>
       <c r="G17">
-        <v>35.6673322874698</v>
+        <v>1.931413356787153</v>
       </c>
       <c r="H17">
-        <v>35.27021046654717</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>7.214143140659263</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.827282150072862</v>
       </c>
       <c r="K17">
-        <v>49.95566116193832</v>
+        <v>57.84629792002233</v>
       </c>
       <c r="L17">
-        <v>38.87574374422343</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36.83846719498241</v>
+      </c>
+      <c r="N17">
+        <v>10.85571662346404</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.16842822755769</v>
+        <v>8.379429711585612</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.285576788894222</v>
+        <v>9.246522397882273</v>
       </c>
       <c r="E18">
-        <v>4.99872370203162</v>
+        <v>7.319316890652831</v>
       </c>
       <c r="F18">
-        <v>45.15710855365309</v>
+        <v>70.94470018927568</v>
       </c>
       <c r="G18">
-        <v>35.09242290673662</v>
+        <v>1.939278715774391</v>
       </c>
       <c r="H18">
-        <v>34.70919460787016</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.411695329118722</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.849851409730853</v>
       </c>
       <c r="K18">
-        <v>49.28489645365421</v>
+        <v>56.90671462610787</v>
       </c>
       <c r="L18">
-        <v>38.32924658987105</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36.24171092231747</v>
+      </c>
+      <c r="N18">
+        <v>10.98145996922096</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.08743612060012</v>
+        <v>8.341514051850162</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.261841877170567</v>
+        <v>9.19025160177622</v>
       </c>
       <c r="E19">
-        <v>5.004924645795199</v>
+        <v>7.296981965572975</v>
       </c>
       <c r="F19">
-        <v>44.91122595515987</v>
+        <v>70.5668978851117</v>
       </c>
       <c r="G19">
-        <v>34.89763834915675</v>
+        <v>1.941918556636548</v>
       </c>
       <c r="H19">
-        <v>34.51921191575404</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.478592681909488</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.857471603353439</v>
       </c>
       <c r="K19">
-        <v>49.05666973023871</v>
+        <v>56.58914001947327</v>
       </c>
       <c r="L19">
-        <v>38.14346000735746</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.03994732266306</v>
+      </c>
+      <c r="N19">
+        <v>11.02370941269899</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44991594131839</v>
+        <v>8.511205441880866</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.368924965521985</v>
+        <v>9.44455178954507</v>
       </c>
       <c r="E20">
-        <v>4.977277446956763</v>
+        <v>7.398416819563468</v>
       </c>
       <c r="F20">
-        <v>46.0170433894003</v>
+        <v>72.27656142198003</v>
       </c>
       <c r="G20">
-        <v>35.77368395245689</v>
+        <v>1.929945961654668</v>
       </c>
       <c r="H20">
-        <v>35.37403665083049</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.177584627556974</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.823094012212953</v>
       </c>
       <c r="K20">
-        <v>50.07928146453226</v>
+        <v>58.02050492665284</v>
       </c>
       <c r="L20">
-        <v>38.97653835535566</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.94908044404677</v>
+      </c>
+      <c r="N20">
+        <v>10.83228154453408</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.6339116654138</v>
+        <v>9.065702948097638</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.734822846298463</v>
+        <v>10.32566927260812</v>
       </c>
       <c r="E21">
-        <v>4.889062441469227</v>
+        <v>7.759538095463824</v>
       </c>
       <c r="F21">
-        <v>49.72870501227804</v>
+        <v>78.2335818999708</v>
       </c>
       <c r="G21">
-        <v>38.71499717043816</v>
+        <v>1.887647405164423</v>
       </c>
       <c r="H21">
-        <v>38.2505407197121</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>6.166853010992214</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.705471770978097</v>
       </c>
       <c r="K21">
-        <v>53.44226512271958</v>
+        <v>62.90210830154302</v>
       </c>
       <c r="L21">
-        <v>41.72807816674496</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40.04471173157341</v>
+      </c>
+      <c r="N21">
+        <v>10.16071673998959</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38381796192633</v>
+        <v>9.417481301568724</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.980358126487293</v>
+        <v>10.93400185117455</v>
       </c>
       <c r="E22">
-        <v>4.835150823664113</v>
+        <v>8.017357769678503</v>
       </c>
       <c r="F22">
-        <v>52.16324095159318</v>
+        <v>82.36015190707586</v>
       </c>
       <c r="G22">
-        <v>40.64527467594088</v>
+        <v>1.857752673107038</v>
       </c>
       <c r="H22">
-        <v>40.14296195345374</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.507702938918325</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.626069030707086</v>
       </c>
       <c r="K22">
-        <v>55.59239079333864</v>
+        <v>66.19920883941988</v>
       </c>
       <c r="L22">
-        <v>43.49741573626688</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42.1310527872449</v>
+      </c>
+      <c r="N22">
+        <v>9.691828304468055</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.98567054891204</v>
+        <v>9.230620982202822</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.848592797133632</v>
+        <v>10.60533092499561</v>
       </c>
       <c r="E23">
-        <v>4.863561857053409</v>
+        <v>7.877212276229377</v>
       </c>
       <c r="F23">
-        <v>50.86224293376276</v>
+        <v>80.13026816632845</v>
       </c>
       <c r="G23">
-        <v>39.61363051514429</v>
+        <v>1.873971102337717</v>
       </c>
       <c r="H23">
-        <v>39.13113087646824</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.859232437841856</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.668754690759544</v>
       </c>
       <c r="K23">
-        <v>54.44873301881606</v>
+        <v>64.42544733796505</v>
       </c>
       <c r="L23">
-        <v>42.55527535414896</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.00911755719841</v>
+      </c>
+      <c r="N23">
+        <v>9.945533023161552</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.43014089562688</v>
+        <v>8.50194782686471</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.363025640639931</v>
+        <v>9.430511405848394</v>
       </c>
       <c r="E24">
-        <v>4.97877863312269</v>
+        <v>7.392783186408815</v>
       </c>
       <c r="F24">
-        <v>45.95635694749173</v>
+        <v>72.18202169186317</v>
       </c>
       <c r="G24">
-        <v>35.72560482458569</v>
+        <v>1.930609825091718</v>
       </c>
       <c r="H24">
-        <v>35.32709753629808</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>7.194112315013249</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.824987886662695</v>
       </c>
       <c r="K24">
-        <v>50.0234134237819</v>
+        <v>57.94173397608355</v>
       </c>
       <c r="L24">
-        <v>38.93098301752186</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>36.89906578637229</v>
+      </c>
+      <c r="N24">
+        <v>10.84288282073667</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.6413842831456</v>
+        <v>7.789115140197356</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.855679649800303</v>
+        <v>8.231905179788527</v>
       </c>
       <c r="E25">
-        <v>5.117668882022686</v>
+        <v>6.926571373735747</v>
       </c>
       <c r="F25">
-        <v>40.63360232877941</v>
+        <v>64.50911641149474</v>
       </c>
       <c r="G25">
-        <v>31.5092610199355</v>
+        <v>1.986023752975613</v>
       </c>
       <c r="H25">
-        <v>31.22298678361909</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>8.637192705704274</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.98807955727953</v>
       </c>
       <c r="K25">
-        <v>45.00556260996743</v>
+        <v>51.10894502665951</v>
       </c>
       <c r="L25">
-        <v>34.85841889671794</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>32.55322344714232</v>
+      </c>
+      <c r="N25">
+        <v>11.73214492390472</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.269504521002876</v>
+        <v>7.250141843412003</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.360470236228127</v>
+        <v>7.391430771166002</v>
       </c>
       <c r="E2">
-        <v>6.607249365386282</v>
+        <v>10.99810054030022</v>
       </c>
       <c r="F2">
-        <v>59.25814382395026</v>
+        <v>23.81025511478103</v>
       </c>
       <c r="G2">
-        <v>2.024650831447607</v>
+        <v>2.082174206766128</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.24132508535061</v>
       </c>
       <c r="J2">
-        <v>5.107392778229849</v>
+        <v>6.377743213021533</v>
       </c>
       <c r="K2">
-        <v>46.01488277958732</v>
+        <v>16.48697438329622</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.30338671532336</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.35418384694039</v>
+        <v>12.12956508136176</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.37936824704058</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.905210982696722</v>
+        <v>6.829625436798481</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.762347304610344</v>
+        <v>7.057836567619558</v>
       </c>
       <c r="E3">
-        <v>6.398740764157431</v>
+        <v>10.52897145834724</v>
       </c>
       <c r="F3">
-        <v>55.80779747928241</v>
+        <v>23.19892687035746</v>
       </c>
       <c r="G3">
-        <v>2.050295362190868</v>
+        <v>2.087576071532093</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.52316073965791</v>
       </c>
       <c r="J3">
-        <v>5.189032064427136</v>
+        <v>6.261855749981179</v>
       </c>
       <c r="K3">
-        <v>42.46297702378919</v>
+        <v>15.43219200974853</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.08373344065251</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.76623449531279</v>
+        <v>12.28893850980818</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.16818155447985</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.676032795647446</v>
+        <v>6.557053712892549</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.388026259680929</v>
+        <v>6.848002098930521</v>
       </c>
       <c r="E4">
-        <v>6.273062943636908</v>
+        <v>10.23656032851294</v>
       </c>
       <c r="F4">
-        <v>53.72930138023482</v>
+        <v>22.83701662191365</v>
       </c>
       <c r="G4">
-        <v>2.065969194429256</v>
+        <v>2.090996159412414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.7012627880035</v>
       </c>
       <c r="J4">
-        <v>5.239850765374016</v>
+        <v>6.193289075768471</v>
       </c>
       <c r="K4">
-        <v>40.21937698217901</v>
+        <v>14.74766035501231</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.91348634892434</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.01712566706452</v>
+        <v>12.38981064719038</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.05234737311119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581359553131978</v>
+        <v>6.442392920580603</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.233309149931821</v>
+        <v>6.761352530439659</v>
       </c>
       <c r="E5">
-        <v>6.222261044527515</v>
+        <v>10.11647648665748</v>
       </c>
       <c r="F5">
-        <v>52.89111091721684</v>
+        <v>22.6930428875664</v>
       </c>
       <c r="G5">
-        <v>2.072361153968945</v>
+        <v>2.092416488760674</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.7751320520203</v>
       </c>
       <c r="J5">
-        <v>5.260771591474675</v>
+        <v>6.166015488204888</v>
       </c>
       <c r="K5">
-        <v>39.28776189421663</v>
+        <v>14.45941798153923</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.43294788544421</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.11914742313036</v>
+        <v>12.43168134170846</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.00855822776321</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565565211297876</v>
+        <v>6.423138037952897</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.207476566109457</v>
+        <v>6.746899354108221</v>
       </c>
       <c r="E6">
-        <v>6.213845886445657</v>
+        <v>10.09648633017248</v>
       </c>
       <c r="F6">
-        <v>52.75243607325282</v>
+        <v>22.66935153225316</v>
       </c>
       <c r="G6">
-        <v>2.07342341310074</v>
+        <v>2.09265395892814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.78747656098325</v>
       </c>
       <c r="J6">
-        <v>5.264259268632534</v>
+        <v>6.161527537178886</v>
       </c>
       <c r="K6">
-        <v>39.13198222789745</v>
+        <v>14.41099427497547</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.35292585072116</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.13608300508997</v>
+        <v>12.43868029185913</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.00149119235966</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.674761034085027</v>
+        <v>6.555521830959609</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.38594898749317</v>
+        <v>6.846837960776507</v>
       </c>
       <c r="E7">
-        <v>6.27237634678376</v>
+        <v>10.23494433223079</v>
       </c>
       <c r="F7">
-        <v>53.71796282036955</v>
+        <v>22.835060578779</v>
       </c>
       <c r="G7">
-        <v>2.066055352144732</v>
+        <v>2.09101520588445</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.70225375992775</v>
       </c>
       <c r="J7">
-        <v>5.240132007578879</v>
+        <v>6.192918528950009</v>
       </c>
       <c r="K7">
-        <v>40.20688487138927</v>
+        <v>14.7438106432079</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.90702084295408</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.01850207824169</v>
+        <v>12.39037222650501</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.05174308632112</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.145091020057974</v>
+        <v>7.108145340006549</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.155439609436757</v>
+        <v>7.277512558878503</v>
       </c>
       <c r="E8">
-        <v>6.534748428834158</v>
+        <v>10.83734808140612</v>
       </c>
       <c r="F8">
-        <v>58.0592140357632</v>
+        <v>23.59675568127419</v>
       </c>
       <c r="G8">
-        <v>2.033523164298691</v>
+        <v>2.084015717130179</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.33746559063031</v>
       </c>
       <c r="J8">
-        <v>5.135423149456905</v>
+        <v>6.337258436141453</v>
       </c>
       <c r="K8">
-        <v>44.80214546744062</v>
+        <v>16.13093052433988</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.52835963611557</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.49690264527502</v>
+        <v>12.18389460560811</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.30364367274642</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.020642246157534</v>
+        <v>8.076960466592826</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.631513258276112</v>
+        <v>8.077965159916236</v>
       </c>
       <c r="E9">
-        <v>7.07868824102988</v>
+        <v>11.97750828753493</v>
       </c>
       <c r="F9">
-        <v>66.98535667238318</v>
+        <v>25.19141747285107</v>
       </c>
       <c r="G9">
-        <v>1.967832636030802</v>
+        <v>2.071079198370801</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.66125677785626</v>
       </c>
       <c r="J9">
-        <v>4.933466315833955</v>
+        <v>6.640068464500211</v>
       </c>
       <c r="K9">
-        <v>53.41022238158304</v>
+        <v>18.55952446343693</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.01854864525329</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.43947847914525</v>
+        <v>11.80265898383235</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.90980587939167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.703507885152325</v>
+        <v>8.718076295570496</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.740844865963846</v>
+        <v>8.63440355565232</v>
       </c>
       <c r="E10">
-        <v>7.518196710424621</v>
+        <v>12.78287602232079</v>
       </c>
       <c r="F10">
-        <v>74.27501828317938</v>
+        <v>26.41708675443912</v>
       </c>
       <c r="G10">
-        <v>1.915860670696221</v>
+        <v>2.062011130374153</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.1869208563423</v>
       </c>
       <c r="J10">
-        <v>4.783255785721803</v>
+        <v>6.873546121493411</v>
       </c>
       <c r="K10">
-        <v>59.6756967103656</v>
+        <v>20.16834803313741</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.99956890817007</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.60775644555551</v>
+        <v>11.53664001272181</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.42623705311518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.030416115193816</v>
+        <v>8.994360603766783</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.26699278879402</v>
+        <v>8.879942154724253</v>
       </c>
       <c r="E11">
-        <v>7.735033320452525</v>
+        <v>13.14112723500321</v>
       </c>
       <c r="F11">
-        <v>77.8358363982196</v>
+        <v>26.98497509719806</v>
       </c>
       <c r="G11">
-        <v>1.890502007209173</v>
+        <v>2.05796997078022</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.97570184064847</v>
       </c>
       <c r="J11">
-        <v>4.713217840209645</v>
+        <v>6.981940864869017</v>
       </c>
       <c r="K11">
-        <v>62.58087253168825</v>
+        <v>20.86278057270566</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.84124169442745</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.2057644851628</v>
+        <v>11.41861060857339</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.67703655825291</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.152362668601139</v>
+        <v>9.096775054484951</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.47147847160979</v>
+        <v>8.971785709993469</v>
       </c>
       <c r="E12">
-        <v>7.820709511376204</v>
+        <v>13.27555245759764</v>
       </c>
       <c r="F12">
-        <v>79.22230898457097</v>
+        <v>27.20139989967016</v>
       </c>
       <c r="G12">
-        <v>1.880531374141854</v>
+        <v>2.05645082368441</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.89634859141425</v>
       </c>
       <c r="J12">
-        <v>4.686285502550805</v>
+        <v>7.023285265490244</v>
       </c>
       <c r="K12">
-        <v>63.69794193079586</v>
+        <v>21.12042083106785</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.54864178334048</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.04861768514276</v>
+        <v>11.37434085233595</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.77431690022172</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.126177740076216</v>
+        <v>9.074816446351935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.42715983850403</v>
+        <v>8.952056713914102</v>
       </c>
       <c r="E13">
-        <v>7.802074652847514</v>
+        <v>13.24665751251367</v>
       </c>
       <c r="F13">
-        <v>78.92174110260304</v>
+        <v>27.15472918803772</v>
       </c>
       <c r="G13">
-        <v>1.882697650518256</v>
+        <v>2.056777518527143</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.9134110778389</v>
       </c>
       <c r="J13">
-        <v>4.692107525260961</v>
+        <v>7.014368010757628</v>
       </c>
       <c r="K13">
-        <v>63.45641600890811</v>
+        <v>21.06516932448465</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.39572767277944</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.08271272697545</v>
+        <v>11.38385626626165</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.75326280870771</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.040484440976831</v>
+        <v>9.002830547328001</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.28369478884773</v>
+        <v>8.887521179324311</v>
       </c>
       <c r="E14">
-        <v>7.742001948755281</v>
+        <v>13.15221160329276</v>
       </c>
       <c r="F14">
-        <v>77.9490435829653</v>
+        <v>27.00275343462587</v>
       </c>
       <c r="G14">
-        <v>1.889689989013155</v>
+        <v>2.057844771622902</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.96916090239207</v>
       </c>
       <c r="J14">
-        <v>4.711011525661195</v>
+        <v>6.985336415072116</v>
       </c>
       <c r="K14">
-        <v>62.67236771631208</v>
+        <v>20.88408319652921</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.8991980528724</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.19294572762551</v>
+        <v>11.4149600014331</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.68499347749174</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.987760945486393</v>
+        <v>8.958449577828082</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.19658255560788</v>
+        <v>8.847842123869992</v>
       </c>
       <c r="E15">
-        <v>7.705713209298132</v>
+        <v>13.09419792154918</v>
       </c>
       <c r="F15">
-        <v>77.35868055017195</v>
+        <v>26.90984044340614</v>
       </c>
       <c r="G15">
-        <v>1.893920538486037</v>
+        <v>2.058499918932828</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.00339068595055</v>
       </c>
       <c r="J15">
-        <v>4.722531233785103</v>
+        <v>6.967592034543042</v>
       </c>
       <c r="K15">
-        <v>62.19466230254733</v>
+        <v>20.7724708391847</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.59657150205283</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.25976908737398</v>
+        <v>11.43406724309764</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.64347782439182</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.681873875328984</v>
+        <v>8.699711319412168</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.707055235051044</v>
+        <v>8.618200202053233</v>
       </c>
       <c r="E16">
-        <v>7.504451174508691</v>
+        <v>12.75929380261808</v>
       </c>
       <c r="F16">
-        <v>74.04681211318359</v>
+        <v>26.38017216850611</v>
       </c>
       <c r="G16">
-        <v>1.91747422040239</v>
+        <v>2.062276841787413</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.20081414810949</v>
       </c>
       <c r="J16">
-        <v>4.787785940964925</v>
+        <v>6.86650477655827</v>
       </c>
       <c r="K16">
-        <v>59.48762627784908</v>
+        <v>20.12221671360296</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.88025158227056</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.63343600464047</v>
+        <v>11.5444132262226</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.41016836500397</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.490718906958241</v>
+        <v>8.537048531330175</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.413507796854423</v>
+        <v>8.47534294943943</v>
       </c>
       <c r="E17">
-        <v>7.385965744300052</v>
+        <v>12.55170730164848</v>
       </c>
       <c r="F17">
-        <v>72.06755079175079</v>
+        <v>26.0578011884507</v>
       </c>
       <c r="G17">
-        <v>1.931413356787153</v>
+        <v>2.064614728790654</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.3230772385673</v>
       </c>
       <c r="J17">
-        <v>4.827282150072862</v>
+        <v>6.8050382209695</v>
       </c>
       <c r="K17">
-        <v>57.84629792002233</v>
+        <v>19.71375829778276</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.83846719498241</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.85571662346404</v>
+        <v>11.61286833766832</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.27112511041099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.379429711585612</v>
+        <v>8.442042941291366</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.246522397882273</v>
+        <v>8.392462986905159</v>
       </c>
       <c r="E18">
-        <v>7.319316890652831</v>
+        <v>12.43154827249471</v>
       </c>
       <c r="F18">
-        <v>70.94470018927568</v>
+        <v>25.87335927030741</v>
       </c>
       <c r="G18">
-        <v>1.939278715774391</v>
+        <v>2.065967380030781</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.39383034537735</v>
       </c>
       <c r="J18">
-        <v>4.849851409730853</v>
+        <v>6.769890790898693</v>
       </c>
       <c r="K18">
-        <v>56.90671462610787</v>
+        <v>19.47529705860881</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.24171092231747</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.98145996922096</v>
+        <v>11.65252295054802</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.19264383610991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.341514051850162</v>
+        <v>8.40962731680902</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.19025160177622</v>
+        <v>8.364280493931213</v>
       </c>
       <c r="E19">
-        <v>7.296981965572975</v>
+        <v>12.39073624549235</v>
       </c>
       <c r="F19">
-        <v>70.5668978851117</v>
+        <v>25.81108179028209</v>
       </c>
       <c r="G19">
-        <v>1.941918556636548</v>
+        <v>2.066426758707455</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.41786083391438</v>
       </c>
       <c r="J19">
-        <v>4.857471603353439</v>
+        <v>6.758026476151528</v>
       </c>
       <c r="K19">
-        <v>56.58914001947327</v>
+        <v>19.3939508451496</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.03994732266306</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.02370941269899</v>
+        <v>11.66599771421597</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.16632697079068</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.511205441880866</v>
+        <v>8.554513949894343</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.44455178954507</v>
+        <v>8.49062442728604</v>
       </c>
       <c r="E20">
-        <v>7.398416819563468</v>
+        <v>12.57388453702021</v>
       </c>
       <c r="F20">
-        <v>72.27656142198003</v>
+        <v>26.09201780578105</v>
       </c>
       <c r="G20">
-        <v>1.929945961654668</v>
+        <v>2.064365039308271</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.31001773469727</v>
       </c>
       <c r="J20">
-        <v>4.823094012212953</v>
+        <v>6.81156019368662</v>
       </c>
       <c r="K20">
-        <v>58.02050492665284</v>
+        <v>19.75760401259353</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.94908044404677</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.83228154453408</v>
+        <v>11.60555211621157</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.28577181580425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.065702948097638</v>
+        <v>9.024034465845117</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.32566927260812</v>
+        <v>8.906507984388091</v>
       </c>
       <c r="E21">
-        <v>7.759538095463824</v>
+        <v>13.17998669136614</v>
       </c>
       <c r="F21">
-        <v>78.2335818999708</v>
+        <v>27.04735577187602</v>
       </c>
       <c r="G21">
-        <v>1.887647405164423</v>
+        <v>2.0575309984974</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.9527689074553</v>
       </c>
       <c r="J21">
-        <v>4.705471770978097</v>
+        <v>6.993855741126293</v>
       </c>
       <c r="K21">
-        <v>62.90210830154302</v>
+        <v>20.93741665983167</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.04471173157341</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.16071673998959</v>
+        <v>11.40581256026383</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.70498300552921</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.417481301568724</v>
+        <v>9.318023309933645</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.93400185117455</v>
+        <v>9.17167353571074</v>
       </c>
       <c r="E22">
-        <v>8.017357769678503</v>
+        <v>13.56888051857708</v>
       </c>
       <c r="F22">
-        <v>82.36015190707586</v>
+        <v>27.67971838940199</v>
       </c>
       <c r="G22">
-        <v>1.857752673107038</v>
+        <v>2.05312908769569</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.72295113120816</v>
       </c>
       <c r="J22">
-        <v>4.626069030707086</v>
+        <v>7.114725350397166</v>
       </c>
       <c r="K22">
-        <v>66.19920883941988</v>
+        <v>21.67747695218691</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.1310527872449</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.691828304468055</v>
+        <v>11.27774973592809</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.99242506368851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.230620982202822</v>
+        <v>9.162292524417968</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.60533092499561</v>
+        <v>9.030769317929735</v>
       </c>
       <c r="E23">
-        <v>7.877212276229377</v>
+        <v>13.36200064031017</v>
       </c>
       <c r="F23">
-        <v>80.13026816632845</v>
+        <v>27.34151388992504</v>
       </c>
       <c r="G23">
-        <v>1.873971102337717</v>
+        <v>2.055472886867795</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.84528216795616</v>
       </c>
       <c r="J23">
-        <v>4.668754690759544</v>
+        <v>7.050061656864901</v>
       </c>
       <c r="K23">
-        <v>64.42544733796505</v>
+        <v>21.28531074065346</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.00911755719841</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>9.945533023161552</v>
+        <v>11.34587350096914</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.83777206831233</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.50194782686471</v>
+        <v>8.546622470794244</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.430511405848394</v>
+        <v>8.483718001874596</v>
       </c>
       <c r="E24">
-        <v>7.392783186408815</v>
+        <v>12.56386074128195</v>
       </c>
       <c r="F24">
-        <v>72.18202169186317</v>
+        <v>26.07654568183646</v>
       </c>
       <c r="G24">
-        <v>1.930609825091718</v>
+        <v>2.064477897164323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.3159204941723</v>
       </c>
       <c r="J24">
-        <v>4.824987886662695</v>
+        <v>6.808611015141326</v>
       </c>
       <c r="K24">
-        <v>57.94173397608355</v>
+        <v>19.73779268525437</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.89906578637229</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.84288282073667</v>
+        <v>11.60885884877005</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.2791455054338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.789115140197356</v>
+        <v>7.827256314653125</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.231905179788527</v>
+        <v>7.866690638467939</v>
       </c>
       <c r="E25">
-        <v>6.926571373735747</v>
+        <v>11.67429476987428</v>
       </c>
       <c r="F25">
-        <v>64.50911641149474</v>
+        <v>24.74999811487054</v>
       </c>
       <c r="G25">
-        <v>1.986023752975613</v>
+        <v>2.074498825394345</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.84013974008258</v>
       </c>
       <c r="J25">
-        <v>4.98807955727953</v>
+        <v>6.556143190349982</v>
       </c>
       <c r="K25">
-        <v>51.10894502665951</v>
+        <v>17.93353195557005</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.55322344714232</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.73214492390472</v>
+        <v>11.90329763631754</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.73350287617673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.250141843412003</v>
+        <v>6.009036962753781</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.391430771166002</v>
+        <v>9.221098254642811</v>
       </c>
       <c r="E2">
-        <v>10.99810054030022</v>
+        <v>13.69073008171404</v>
       </c>
       <c r="F2">
-        <v>23.81025511478103</v>
+        <v>32.61958045555525</v>
       </c>
       <c r="G2">
-        <v>2.082174206766128</v>
+        <v>3.650023328736792</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.24132508535061</v>
+        <v>19.51697929232831</v>
       </c>
       <c r="J2">
-        <v>6.377743213021533</v>
+        <v>9.911100611200659</v>
       </c>
       <c r="K2">
-        <v>16.48697438329622</v>
+        <v>12.65788962491837</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.12956508136176</v>
+        <v>18.21968480044169</v>
       </c>
       <c r="O2">
-        <v>16.37936824704058</v>
+        <v>24.48441608406176</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.829625436798481</v>
+        <v>5.884940128791502</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.057836567619558</v>
+        <v>9.171578512080591</v>
       </c>
       <c r="E3">
-        <v>10.52897145834724</v>
+        <v>13.63184402722153</v>
       </c>
       <c r="F3">
-        <v>23.19892687035746</v>
+        <v>32.62516691128275</v>
       </c>
       <c r="G3">
-        <v>2.087576071532093</v>
+        <v>3.652098339158004</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.52316073965791</v>
+        <v>19.61469403009081</v>
       </c>
       <c r="J3">
-        <v>6.261855749981179</v>
+        <v>9.91698098525014</v>
       </c>
       <c r="K3">
-        <v>15.43219200974853</v>
+        <v>12.32479067904739</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.28893850980818</v>
+        <v>18.27192950793475</v>
       </c>
       <c r="O3">
-        <v>16.16818155447985</v>
+        <v>24.53484181832607</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.557053712892549</v>
+        <v>5.808288486707063</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.848002098930521</v>
+        <v>9.142646857389954</v>
       </c>
       <c r="E4">
-        <v>10.23656032851294</v>
+        <v>13.59845018284453</v>
       </c>
       <c r="F4">
-        <v>22.83701662191365</v>
+        <v>32.63685818368388</v>
       </c>
       <c r="G4">
-        <v>2.090996159412414</v>
+        <v>3.653440427983274</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.7012627880035</v>
+        <v>19.67775075153773</v>
       </c>
       <c r="J4">
-        <v>6.193289075768471</v>
+        <v>9.922194062725561</v>
       </c>
       <c r="K4">
-        <v>14.74766035501231</v>
+        <v>12.11733276727223</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.38981064719038</v>
+        <v>18.30571205467432</v>
       </c>
       <c r="O4">
-        <v>16.05234737311119</v>
+        <v>24.57142078132421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.442392920580603</v>
+        <v>5.776981443528987</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.761352530439659</v>
+        <v>9.131236794860033</v>
       </c>
       <c r="E5">
-        <v>10.11647648665748</v>
+        <v>13.58554706696581</v>
       </c>
       <c r="F5">
-        <v>22.6930428875664</v>
+        <v>32.64369898573737</v>
       </c>
       <c r="G5">
-        <v>2.092416488760674</v>
+        <v>3.654004499802967</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.7751320520203</v>
+        <v>19.70421828041547</v>
       </c>
       <c r="J5">
-        <v>6.166015488204888</v>
+        <v>9.924721711757288</v>
       </c>
       <c r="K5">
-        <v>14.45941798153923</v>
+        <v>12.03217837063836</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.43168134170846</v>
+        <v>18.31990828314701</v>
       </c>
       <c r="O5">
-        <v>16.00855822776321</v>
+        <v>24.58773628350975</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.423138037952897</v>
+        <v>5.771779954449761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.746899354108221</v>
+        <v>9.129365363152944</v>
       </c>
       <c r="E6">
-        <v>10.09648633017248</v>
+        <v>13.58344739290767</v>
       </c>
       <c r="F6">
-        <v>22.66935153225316</v>
+        <v>32.64496026374718</v>
       </c>
       <c r="G6">
-        <v>2.09265395892814</v>
+        <v>3.654099201508515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.78747656098325</v>
+        <v>19.70865984529105</v>
       </c>
       <c r="J6">
-        <v>6.161527537178886</v>
+        <v>9.925165789871</v>
       </c>
       <c r="K6">
-        <v>14.41099427497547</v>
+        <v>12.01800524501588</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.43868029185913</v>
+        <v>18.32229153217283</v>
       </c>
       <c r="O6">
-        <v>16.00149119235966</v>
+        <v>24.59053047540232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.555521830959609</v>
+        <v>5.80786649724713</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.846837960776507</v>
+        <v>9.142491427569714</v>
       </c>
       <c r="E7">
-        <v>10.23494433223079</v>
+        <v>13.59827329857977</v>
       </c>
       <c r="F7">
-        <v>22.835060578779</v>
+        <v>32.63694203544926</v>
       </c>
       <c r="G7">
-        <v>2.09101520588445</v>
+        <v>3.653447965700934</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.70225375992775</v>
+        <v>19.67810457575068</v>
       </c>
       <c r="J7">
-        <v>6.192918528950009</v>
+        <v>9.922226518298007</v>
       </c>
       <c r="K7">
-        <v>14.7438106432079</v>
+        <v>12.11618666089856</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.39037222650501</v>
+        <v>18.30590176926902</v>
       </c>
       <c r="O7">
-        <v>16.05174308632112</v>
+        <v>24.57163511636045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.108145340006549</v>
+        <v>5.96636875547035</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.277512558878503</v>
+        <v>9.203723695369218</v>
       </c>
       <c r="E8">
-        <v>10.83734808140612</v>
+        <v>13.66985940298169</v>
       </c>
       <c r="F8">
-        <v>23.59675568127419</v>
+        <v>32.61979192529893</v>
       </c>
       <c r="G8">
-        <v>2.084015717130179</v>
+        <v>3.650724706815312</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.33746559063031</v>
+        <v>19.55003759092465</v>
       </c>
       <c r="J8">
-        <v>6.337258436141453</v>
+        <v>9.912795785263352</v>
       </c>
       <c r="K8">
-        <v>16.13093052433988</v>
+        <v>12.54371836867487</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.18389460560811</v>
+        <v>18.23734573093154</v>
       </c>
       <c r="O8">
-        <v>16.30364367274642</v>
+        <v>24.50063513685585</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.076960466592826</v>
+        <v>6.271729000493191</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.077965159916236</v>
+        <v>9.335063424626687</v>
       </c>
       <c r="E9">
-        <v>11.97750828753493</v>
+        <v>13.83165609794445</v>
       </c>
       <c r="F9">
-        <v>25.19141747285107</v>
+        <v>32.65169538617811</v>
       </c>
       <c r="G9">
-        <v>2.071079198370801</v>
+        <v>3.64592165731769</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.66125677785626</v>
+        <v>19.3230786780027</v>
       </c>
       <c r="J9">
-        <v>6.640068464500211</v>
+        <v>9.906999852420835</v>
       </c>
       <c r="K9">
-        <v>18.55952446343693</v>
+        <v>13.35373312683931</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.80265898383235</v>
+        <v>18.11638024891487</v>
       </c>
       <c r="O9">
-        <v>16.90980587939167</v>
+        <v>24.40610811527104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.718076295570496</v>
+        <v>6.490397241010498</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.63440355565232</v>
+        <v>9.437819738857762</v>
       </c>
       <c r="E10">
-        <v>12.78287602232079</v>
+        <v>13.96285642073481</v>
       </c>
       <c r="F10">
-        <v>26.41708675443912</v>
+        <v>32.71499346425939</v>
       </c>
       <c r="G10">
-        <v>2.062011130374153</v>
+        <v>3.642716900266602</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.1869208563423</v>
+        <v>19.17093771462484</v>
       </c>
       <c r="J10">
-        <v>6.873546121493411</v>
+        <v>9.910453611026282</v>
       </c>
       <c r="K10">
-        <v>20.16834803313741</v>
+        <v>13.92526548779704</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.53664001272181</v>
+        <v>18.03565232604988</v>
       </c>
       <c r="O10">
-        <v>17.42623705311518</v>
+        <v>24.36407333881726</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.994360603766783</v>
+        <v>6.588184424922061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.879942154724253</v>
+        <v>9.485788516215173</v>
       </c>
       <c r="E11">
-        <v>13.14112723500321</v>
+        <v>14.02504873138033</v>
       </c>
       <c r="F11">
-        <v>26.98497509719806</v>
+        <v>32.75239716560136</v>
       </c>
       <c r="G11">
-        <v>2.05796997078022</v>
+        <v>3.64132859607045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.97570184064847</v>
+        <v>19.10486762702213</v>
       </c>
       <c r="J11">
-        <v>6.981940864869017</v>
+        <v>9.913690780118166</v>
       </c>
       <c r="K11">
-        <v>20.86278057270566</v>
+        <v>14.1789772590061</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.41861060857339</v>
+        <v>18.00068152441376</v>
       </c>
       <c r="O11">
-        <v>17.67703655825291</v>
+        <v>24.35093008097654</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.096775054484951</v>
+        <v>6.624936309798313</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.971785709993469</v>
+        <v>9.504117036854728</v>
       </c>
       <c r="E12">
-        <v>13.27555245759764</v>
+        <v>14.0489445935739</v>
       </c>
       <c r="F12">
-        <v>27.20139989967016</v>
+        <v>32.76779263672</v>
       </c>
       <c r="G12">
-        <v>2.05645082368441</v>
+        <v>3.640812827304096</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.89634859141425</v>
+        <v>19.08029794735785</v>
       </c>
       <c r="J12">
-        <v>7.023285265490244</v>
+        <v>9.915155208490832</v>
       </c>
       <c r="K12">
-        <v>21.12042083106785</v>
+        <v>14.27406120002758</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.37434085233595</v>
+        <v>17.98768998911758</v>
       </c>
       <c r="O12">
-        <v>17.77431690022172</v>
+        <v>24.3468142330545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.074816446351935</v>
+        <v>6.617034038912759</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.952056713914102</v>
+        <v>9.500162575891851</v>
       </c>
       <c r="E13">
-        <v>13.24665751251367</v>
+        <v>14.04378310596968</v>
       </c>
       <c r="F13">
-        <v>27.15472918803772</v>
+        <v>32.76442229287441</v>
       </c>
       <c r="G13">
-        <v>2.056777518527143</v>
+        <v>3.640923465516864</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.9134110778389</v>
+        <v>19.08556949925159</v>
       </c>
       <c r="J13">
-        <v>7.014368010757628</v>
+        <v>9.914829223820359</v>
       </c>
       <c r="K13">
-        <v>21.06516932448465</v>
+        <v>14.25362857341067</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.38385626626165</v>
+        <v>17.99047679283709</v>
       </c>
       <c r="O13">
-        <v>17.75326280870771</v>
+        <v>24.34766233235446</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.002830547328001</v>
+        <v>6.591213791385734</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.887521179324311</v>
+        <v>9.487293203403887</v>
       </c>
       <c r="E14">
-        <v>13.15221160329276</v>
+        <v>14.02700783669509</v>
       </c>
       <c r="F14">
-        <v>27.00275343462587</v>
+        <v>32.75363912111705</v>
       </c>
       <c r="G14">
-        <v>2.057844771622902</v>
+        <v>3.641285964298518</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.96916090239207</v>
+        <v>19.10283726394269</v>
       </c>
       <c r="J14">
-        <v>6.985336415072116</v>
+        <v>9.913806484123221</v>
       </c>
       <c r="K14">
-        <v>20.88408319652921</v>
+        <v>14.18682021321772</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.4149600014331</v>
+        <v>17.99960767465316</v>
       </c>
       <c r="O14">
-        <v>17.68499347749174</v>
+        <v>24.35057420053801</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.958449577828082</v>
+        <v>6.575360925622417</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.847842123869992</v>
+        <v>9.479431301895202</v>
       </c>
       <c r="E15">
-        <v>13.09419792154918</v>
+        <v>14.01677694925499</v>
       </c>
       <c r="F15">
-        <v>26.90984044340614</v>
+        <v>32.74719427929764</v>
       </c>
       <c r="G15">
-        <v>2.058499918932828</v>
+        <v>3.641509299818315</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.00339068595055</v>
+        <v>19.1134727689979</v>
       </c>
       <c r="J15">
-        <v>6.967592034543042</v>
+        <v>9.913211065330312</v>
       </c>
       <c r="K15">
-        <v>20.7724708391847</v>
+        <v>14.1457666030764</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.43406724309764</v>
+        <v>18.00523328413237</v>
       </c>
       <c r="O15">
-        <v>17.64347782439182</v>
+        <v>24.35246999709862</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.699711319412168</v>
+        <v>6.483969598611202</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.618200202053233</v>
+        <v>9.434708460881481</v>
       </c>
       <c r="E16">
-        <v>12.75929380261808</v>
+        <v>13.95884115415939</v>
       </c>
       <c r="F16">
-        <v>26.38017216850611</v>
+        <v>32.71272175908412</v>
       </c>
       <c r="G16">
-        <v>2.062276841787413</v>
+        <v>3.642809024556474</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.20081414810949</v>
+        <v>19.17531856909317</v>
       </c>
       <c r="J16">
-        <v>6.86650477655827</v>
+        <v>9.910275497645319</v>
       </c>
       <c r="K16">
-        <v>20.12221671360296</v>
+        <v>13.90855073326829</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.5444132262226</v>
+        <v>18.03797294297608</v>
       </c>
       <c r="O16">
-        <v>17.41016836500397</v>
+        <v>24.36505272473833</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.537048531330175</v>
+        <v>6.427446103900978</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.47534294943943</v>
+        <v>9.407577395803992</v>
       </c>
       <c r="E17">
-        <v>12.55170730164848</v>
+        <v>13.92393092668148</v>
       </c>
       <c r="F17">
-        <v>26.0578011884507</v>
+        <v>32.69377480737349</v>
       </c>
       <c r="G17">
-        <v>2.064614728790654</v>
+        <v>3.64362414270446</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.3230772385673</v>
+        <v>19.21406177417694</v>
       </c>
       <c r="J17">
-        <v>6.8050382209695</v>
+        <v>9.908900671087835</v>
       </c>
       <c r="K17">
-        <v>19.71375829778276</v>
+        <v>13.76135261805124</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.61286833766832</v>
+        <v>18.05850594004784</v>
       </c>
       <c r="O17">
-        <v>17.27112511041099</v>
+        <v>24.3743042890305</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.442042941291366</v>
+        <v>6.394778560432638</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.392462986905159</v>
+        <v>9.392088326341288</v>
       </c>
       <c r="E18">
-        <v>12.43154827249471</v>
+        <v>13.90408859465858</v>
       </c>
       <c r="F18">
-        <v>25.87335927030741</v>
+        <v>32.68368782475822</v>
       </c>
       <c r="G18">
-        <v>2.065967380030781</v>
+        <v>3.644099527002617</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.39383034537735</v>
+        <v>19.23664146387151</v>
       </c>
       <c r="J18">
-        <v>6.769890790898693</v>
+        <v>9.908266790292322</v>
       </c>
       <c r="K18">
-        <v>19.47529705860881</v>
+        <v>13.67610169417628</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.65252295054802</v>
+        <v>18.07048100490119</v>
       </c>
       <c r="O18">
-        <v>17.19264383610991</v>
+        <v>24.38018821318046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.40962731680902</v>
+        <v>6.383692095079711</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.364280493931213</v>
+        <v>9.386864286767251</v>
       </c>
       <c r="E19">
-        <v>12.39073624549235</v>
+        <v>13.89741151537853</v>
       </c>
       <c r="F19">
-        <v>25.81108179028209</v>
+        <v>32.68041197679404</v>
       </c>
       <c r="G19">
-        <v>2.066426758707455</v>
+        <v>3.644261610444298</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.41786083391438</v>
+        <v>19.24433738879694</v>
       </c>
       <c r="J19">
-        <v>6.758026476151528</v>
+        <v>9.908079141983286</v>
       </c>
       <c r="K19">
-        <v>19.3939508451496</v>
+        <v>13.64713928091403</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.66599771421597</v>
+        <v>18.07456392732025</v>
       </c>
       <c r="O19">
-        <v>17.16632697079068</v>
+        <v>24.38227699462762</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.554513949894343</v>
+        <v>6.433479611646038</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.49062442728604</v>
+        <v>9.410453626409769</v>
       </c>
       <c r="E20">
-        <v>12.57388453702021</v>
+        <v>13.92762275246041</v>
       </c>
       <c r="F20">
-        <v>26.09201780578105</v>
+        <v>32.69570787019171</v>
       </c>
       <c r="G20">
-        <v>2.064365039308271</v>
+        <v>3.643536694460884</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.31001773469727</v>
+        <v>19.20990691140207</v>
       </c>
       <c r="J20">
-        <v>6.81156019368662</v>
+        <v>9.909030793669526</v>
       </c>
       <c r="K20">
-        <v>19.75760401259353</v>
+        <v>13.77708346748613</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.60555211621157</v>
+        <v>18.05630309419177</v>
       </c>
       <c r="O20">
-        <v>17.28577181580425</v>
+        <v>24.37326119772963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.024034465845117</v>
+        <v>6.598805640438743</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.906507984388091</v>
+        <v>9.49106890413597</v>
       </c>
       <c r="E21">
-        <v>13.17998669136614</v>
+        <v>14.03192590564395</v>
       </c>
       <c r="F21">
-        <v>27.04735577187602</v>
+        <v>32.7567730358551</v>
       </c>
       <c r="G21">
-        <v>2.0575309984974</v>
+        <v>3.641179219925047</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.9527689074553</v>
+        <v>19.09775311466731</v>
       </c>
       <c r="J21">
-        <v>6.993855741126293</v>
+        <v>9.914100421062724</v>
       </c>
       <c r="K21">
-        <v>20.93741665983167</v>
+        <v>14.20647101117877</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.40581256026383</v>
+        <v>17.99691890426515</v>
       </c>
       <c r="O21">
-        <v>17.70498300552921</v>
+        <v>24.34969553123706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.318023309933645</v>
+        <v>6.705220534946295</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.17167353571074</v>
+        <v>9.54470444856659</v>
       </c>
       <c r="E22">
-        <v>13.56888051857708</v>
+        <v>14.10209716561313</v>
       </c>
       <c r="F22">
-        <v>27.67971838940199</v>
+        <v>32.80385681490897</v>
       </c>
       <c r="G22">
-        <v>2.05312908769569</v>
+        <v>3.639696458352345</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.72295113120816</v>
+        <v>19.02707406396088</v>
       </c>
       <c r="J22">
-        <v>7.114725350397166</v>
+        <v>9.918803803737386</v>
       </c>
       <c r="K22">
-        <v>21.67747695218691</v>
+        <v>14.48128779274179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.27774973592809</v>
+        <v>17.95957138573777</v>
       </c>
       <c r="O22">
-        <v>17.99242506368851</v>
+        <v>24.33931422958143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.162292524417968</v>
+        <v>6.648585661658267</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.030769317929735</v>
+        <v>9.515995455864648</v>
       </c>
       <c r="E23">
-        <v>13.36200064031017</v>
+        <v>14.06446751207075</v>
       </c>
       <c r="F23">
-        <v>27.34151388992504</v>
+        <v>32.77807337209619</v>
       </c>
       <c r="G23">
-        <v>2.055472886867795</v>
+        <v>3.640482547005396</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.84528216795616</v>
+        <v>19.06455768240541</v>
       </c>
       <c r="J23">
-        <v>7.050061656864901</v>
+        <v>9.916166688842129</v>
       </c>
       <c r="K23">
-        <v>21.28531074065346</v>
+        <v>14.33517182483887</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.34587350096914</v>
+        <v>17.97937084107154</v>
       </c>
       <c r="O23">
-        <v>17.83777206831233</v>
+        <v>24.34439519247614</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.546622470794244</v>
+        <v>6.430752394053216</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.483718001874596</v>
+        <v>9.409152942292117</v>
       </c>
       <c r="E24">
-        <v>12.56386074128195</v>
+        <v>13.92595296658423</v>
       </c>
       <c r="F24">
-        <v>26.07654568183646</v>
+        <v>32.69483142174423</v>
       </c>
       <c r="G24">
-        <v>2.064477897164323</v>
+        <v>3.64357620874434</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.3159204941723</v>
+        <v>19.21178437246989</v>
       </c>
       <c r="J24">
-        <v>6.808611015141326</v>
+        <v>9.908971477616998</v>
       </c>
       <c r="K24">
-        <v>19.73779268525437</v>
+        <v>13.76997348967223</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.60885884877005</v>
+        <v>18.05729847002869</v>
       </c>
       <c r="O24">
-        <v>17.2791455054338</v>
+        <v>24.37373101921148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.827256314653125</v>
+        <v>6.189955951628309</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.866690638467939</v>
+        <v>9.298387537334072</v>
       </c>
       <c r="E25">
-        <v>11.67429476987428</v>
+        <v>13.78566496946327</v>
       </c>
       <c r="F25">
-        <v>24.74999811487054</v>
+        <v>32.63605305708639</v>
       </c>
       <c r="G25">
-        <v>2.074498825394345</v>
+        <v>3.647163854083816</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.84013974008258</v>
+        <v>19.38190246897</v>
       </c>
       <c r="J25">
-        <v>6.556143190349982</v>
+        <v>9.90721090249189</v>
       </c>
       <c r="K25">
-        <v>17.93353195557005</v>
+        <v>13.13832009710742</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.90329763631754</v>
+        <v>18.14766935439293</v>
       </c>
       <c r="O25">
-        <v>16.73350287617673</v>
+        <v>24.42687610433381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.009036962753781</v>
+        <v>7.250141843412003</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.221098254642811</v>
+        <v>7.391430771165912</v>
       </c>
       <c r="E2">
-        <v>13.69073008171404</v>
+        <v>10.99810054030018</v>
       </c>
       <c r="F2">
-        <v>32.61958045555525</v>
+        <v>23.81025511478094</v>
       </c>
       <c r="G2">
-        <v>3.650023328736792</v>
+        <v>2.082174206765592</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.51697929232831</v>
+        <v>12.24132508535058</v>
       </c>
       <c r="J2">
-        <v>9.911100611200659</v>
+        <v>6.377743213021528</v>
       </c>
       <c r="K2">
-        <v>12.65788962491837</v>
+        <v>16.48697438329625</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.21968480044169</v>
+        <v>12.12956508136172</v>
       </c>
       <c r="O2">
-        <v>24.48441608406176</v>
+        <v>16.37936824704053</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.884940128791502</v>
+        <v>6.829625436798486</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.171578512080591</v>
+        <v>7.057836567619487</v>
       </c>
       <c r="E3">
-        <v>13.63184402722153</v>
+        <v>10.52897145834718</v>
       </c>
       <c r="F3">
-        <v>32.62516691128275</v>
+        <v>23.19892687035729</v>
       </c>
       <c r="G3">
-        <v>3.652098339158004</v>
+        <v>2.08757607153169</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.61469403009081</v>
+        <v>12.52316073965787</v>
       </c>
       <c r="J3">
-        <v>9.91698098525014</v>
+        <v>6.261855749981128</v>
       </c>
       <c r="K3">
-        <v>12.32479067904739</v>
+        <v>15.43219200974856</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.27192950793475</v>
+        <v>12.28893850980815</v>
       </c>
       <c r="O3">
-        <v>24.53484181832607</v>
+        <v>16.16818155447977</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.808288486707063</v>
+        <v>6.557053712892557</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.142646857389954</v>
+        <v>6.848002098930488</v>
       </c>
       <c r="E4">
-        <v>13.59845018284453</v>
+        <v>10.23656032851293</v>
       </c>
       <c r="F4">
-        <v>32.63685818368388</v>
+        <v>22.83701662191359</v>
       </c>
       <c r="G4">
-        <v>3.653440427983274</v>
+        <v>2.090996159412146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.67775075153773</v>
+        <v>12.70126278800351</v>
       </c>
       <c r="J4">
-        <v>9.922194062725561</v>
+        <v>6.193289075768427</v>
       </c>
       <c r="K4">
-        <v>12.11733276727223</v>
+        <v>14.74766035501238</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.30571205467432</v>
+        <v>12.38981064719038</v>
       </c>
       <c r="O4">
-        <v>24.57142078132421</v>
+        <v>16.05234737311113</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.776981443528987</v>
+        <v>6.442392920580603</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.131236794860033</v>
+        <v>6.761352530439613</v>
       </c>
       <c r="E5">
-        <v>13.58554706696581</v>
+        <v>10.11647648665745</v>
       </c>
       <c r="F5">
-        <v>32.64369898573737</v>
+        <v>22.69304288756622</v>
       </c>
       <c r="G5">
-        <v>3.654004499802967</v>
+        <v>2.09241648876054</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.70421828041547</v>
+        <v>12.7751320520203</v>
       </c>
       <c r="J5">
-        <v>9.924721711757288</v>
+        <v>6.166015488204866</v>
       </c>
       <c r="K5">
-        <v>12.03217837063836</v>
+        <v>14.45941798153925</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.31990828314701</v>
+        <v>12.43168134170846</v>
       </c>
       <c r="O5">
-        <v>24.58773628350975</v>
+        <v>16.00855822776312</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.771779954449761</v>
+        <v>6.423138037952944</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.129365363152944</v>
+        <v>6.74689935410826</v>
       </c>
       <c r="E6">
-        <v>13.58344739290767</v>
+        <v>10.09648633017251</v>
       </c>
       <c r="F6">
-        <v>32.64496026374718</v>
+        <v>22.66935153225304</v>
       </c>
       <c r="G6">
-        <v>3.654099201508515</v>
+        <v>2.092653958928006</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.70865984529105</v>
+        <v>12.78747656098322</v>
       </c>
       <c r="J6">
-        <v>9.925165789871</v>
+        <v>6.161527537178902</v>
       </c>
       <c r="K6">
-        <v>12.01800524501588</v>
+        <v>14.41099427497549</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.32229153217283</v>
+        <v>12.4386802918591</v>
       </c>
       <c r="O6">
-        <v>24.59053047540232</v>
+        <v>16.00149119235957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.80786649724713</v>
+        <v>6.555521830959626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.142491427569714</v>
+        <v>6.846837960776566</v>
       </c>
       <c r="E7">
-        <v>13.59827329857977</v>
+        <v>10.23494433223074</v>
       </c>
       <c r="F7">
-        <v>32.63694203544926</v>
+        <v>22.83506057877897</v>
       </c>
       <c r="G7">
-        <v>3.653447965700934</v>
+        <v>2.091015205884317</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.67810457575068</v>
+        <v>12.70225375992768</v>
       </c>
       <c r="J7">
-        <v>9.922226518298007</v>
+        <v>6.192918528949901</v>
       </c>
       <c r="K7">
-        <v>12.11618666089856</v>
+        <v>14.74381064320796</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.30590176926902</v>
+        <v>12.39037222650501</v>
       </c>
       <c r="O7">
-        <v>24.57163511636045</v>
+        <v>16.05174308632106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.96636875547035</v>
+        <v>7.108145340006468</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.203723695369218</v>
+        <v>7.277512558878491</v>
       </c>
       <c r="E8">
-        <v>13.66985940298169</v>
+        <v>10.83734808140608</v>
       </c>
       <c r="F8">
-        <v>32.61979192529893</v>
+        <v>23.59675568127413</v>
       </c>
       <c r="G8">
-        <v>3.650724706815312</v>
+        <v>2.08401571713018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.55003759092465</v>
+        <v>12.33746559063031</v>
       </c>
       <c r="J8">
-        <v>9.912795785263352</v>
+        <v>6.337258436141438</v>
       </c>
       <c r="K8">
-        <v>12.54371836867487</v>
+        <v>16.13093052433986</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.23734573093154</v>
+        <v>12.18389460560805</v>
       </c>
       <c r="O8">
-        <v>24.50063513685585</v>
+        <v>16.30364367274638</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.271729000493191</v>
+        <v>8.076960466592791</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.335063424626687</v>
+        <v>8.077965159916287</v>
       </c>
       <c r="E9">
-        <v>13.83165609794445</v>
+        <v>11.97750828753503</v>
       </c>
       <c r="F9">
-        <v>32.65169538617811</v>
+        <v>25.19141747285103</v>
       </c>
       <c r="G9">
-        <v>3.64592165731769</v>
+        <v>2.071079198370668</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.3230786780027</v>
+        <v>11.66125677785629</v>
       </c>
       <c r="J9">
-        <v>9.906999852420835</v>
+        <v>6.640068464500293</v>
       </c>
       <c r="K9">
-        <v>13.35373312683931</v>
+        <v>18.55952446343697</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.11638024891487</v>
+        <v>11.80265898383235</v>
       </c>
       <c r="O9">
-        <v>24.40610811527104</v>
+        <v>16.90980587939161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.490397241010498</v>
+        <v>8.718076295570471</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.437819738857762</v>
+        <v>8.634403555652392</v>
       </c>
       <c r="E10">
-        <v>13.96285642073481</v>
+        <v>12.7828760223208</v>
       </c>
       <c r="F10">
-        <v>32.71499346425939</v>
+        <v>26.41708675443906</v>
       </c>
       <c r="G10">
-        <v>3.642716900266602</v>
+        <v>2.06201113037442</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.17093771462484</v>
+        <v>11.1869208563423</v>
       </c>
       <c r="J10">
-        <v>9.910453611026282</v>
+        <v>6.873546121493399</v>
       </c>
       <c r="K10">
-        <v>13.92526548779704</v>
+        <v>20.16834803313746</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.03565232604988</v>
+        <v>11.53664001272175</v>
       </c>
       <c r="O10">
-        <v>24.36407333881726</v>
+        <v>17.42623705311508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.588184424922061</v>
+        <v>8.994360603766744</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.485788516215173</v>
+        <v>8.879942154724263</v>
       </c>
       <c r="E11">
-        <v>14.02504873138033</v>
+        <v>13.14112723500321</v>
       </c>
       <c r="F11">
-        <v>32.75239716560136</v>
+        <v>26.98497509719802</v>
       </c>
       <c r="G11">
-        <v>3.64132859607045</v>
+        <v>2.057969970780486</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.10486762702213</v>
+        <v>10.9757018406485</v>
       </c>
       <c r="J11">
-        <v>9.913690780118166</v>
+        <v>6.981940864868992</v>
       </c>
       <c r="K11">
-        <v>14.1789772590061</v>
+        <v>20.86278057270573</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.00068152441376</v>
+        <v>11.41861060857339</v>
       </c>
       <c r="O11">
-        <v>24.35093008097654</v>
+        <v>17.67703655825286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.624936309798313</v>
+        <v>9.09677505448496</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.504117036854728</v>
+        <v>8.971785709993485</v>
       </c>
       <c r="E12">
-        <v>14.0489445935739</v>
+        <v>13.27555245759763</v>
       </c>
       <c r="F12">
-        <v>32.76779263672</v>
+        <v>27.20139989967013</v>
       </c>
       <c r="G12">
-        <v>3.640812827304096</v>
+        <v>2.056450823684274</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.08029794735785</v>
+        <v>10.89634859141425</v>
       </c>
       <c r="J12">
-        <v>9.915155208490832</v>
+        <v>7.023285265490204</v>
       </c>
       <c r="K12">
-        <v>14.27406120002758</v>
+        <v>21.12042083106788</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.98768998911758</v>
+        <v>11.37434085233595</v>
       </c>
       <c r="O12">
-        <v>24.3468142330545</v>
+        <v>17.77431690022167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.617034038912759</v>
+        <v>9.074816446351978</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.500162575891851</v>
+        <v>8.952056713914086</v>
       </c>
       <c r="E13">
-        <v>14.04378310596968</v>
+        <v>13.24665751251368</v>
       </c>
       <c r="F13">
-        <v>32.76442229287441</v>
+        <v>27.1547291880377</v>
       </c>
       <c r="G13">
-        <v>3.640923465516864</v>
+        <v>2.056777518527142</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.08556949925159</v>
+        <v>10.91341107783883</v>
       </c>
       <c r="J13">
-        <v>9.914829223820359</v>
+        <v>7.014368010757652</v>
       </c>
       <c r="K13">
-        <v>14.25362857341067</v>
+        <v>21.06516932448466</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.99047679283709</v>
+        <v>11.38385626626162</v>
       </c>
       <c r="O13">
-        <v>24.34766233235446</v>
+        <v>17.75326280870769</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.591213791385734</v>
+        <v>9.002830547328026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.487293203403887</v>
+        <v>8.88752117932437</v>
       </c>
       <c r="E14">
-        <v>14.02700783669509</v>
+        <v>13.15221160329279</v>
       </c>
       <c r="F14">
-        <v>32.75363912111705</v>
+        <v>27.00275343462584</v>
       </c>
       <c r="G14">
-        <v>3.641285964298518</v>
+        <v>2.057844771622902</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.10283726394269</v>
+        <v>10.96916090239197</v>
       </c>
       <c r="J14">
-        <v>9.913806484123221</v>
+        <v>6.985336415072102</v>
       </c>
       <c r="K14">
-        <v>14.18682021321772</v>
+        <v>20.88408319652924</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.99960767465316</v>
+        <v>11.41496000143307</v>
       </c>
       <c r="O14">
-        <v>24.35057420053801</v>
+        <v>17.68499347749169</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.575360925622417</v>
+        <v>8.958449577827999</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.479431301895202</v>
+        <v>8.847842123869956</v>
       </c>
       <c r="E15">
-        <v>14.01677694925499</v>
+        <v>13.09419792154918</v>
       </c>
       <c r="F15">
-        <v>32.74719427929764</v>
+        <v>26.90984044340599</v>
       </c>
       <c r="G15">
-        <v>3.641509299818315</v>
+        <v>2.058499918932959</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.1134727689979</v>
+        <v>11.00339068595055</v>
       </c>
       <c r="J15">
-        <v>9.913211065330312</v>
+        <v>6.967592034543007</v>
       </c>
       <c r="K15">
-        <v>14.1457666030764</v>
+        <v>20.77247083918472</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.00523328413237</v>
+        <v>11.43406724309754</v>
       </c>
       <c r="O15">
-        <v>24.35246999709862</v>
+        <v>17.64347782439173</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.483969598611202</v>
+        <v>8.699711319412168</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.434708460881481</v>
+        <v>8.618200202053215</v>
       </c>
       <c r="E16">
-        <v>13.95884115415939</v>
+        <v>12.75929380261809</v>
       </c>
       <c r="F16">
-        <v>32.71272175908412</v>
+        <v>26.38017216850609</v>
       </c>
       <c r="G16">
-        <v>3.642809024556474</v>
+        <v>2.062276841787813</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.17531856909317</v>
+        <v>11.20081414810949</v>
       </c>
       <c r="J16">
-        <v>9.910275497645319</v>
+        <v>6.866504776558307</v>
       </c>
       <c r="K16">
-        <v>13.90855073326829</v>
+        <v>20.12221671360298</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.03797294297608</v>
+        <v>11.54441322622263</v>
       </c>
       <c r="O16">
-        <v>24.36505272473833</v>
+        <v>17.41016836500397</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.427446103900978</v>
+        <v>8.537048531330148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.407577395803992</v>
+        <v>8.475342949439382</v>
       </c>
       <c r="E17">
-        <v>13.92393092668148</v>
+        <v>12.55170730164848</v>
       </c>
       <c r="F17">
-        <v>32.69377480737349</v>
+        <v>26.05780118845061</v>
       </c>
       <c r="G17">
-        <v>3.64362414270446</v>
+        <v>2.064614728790523</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.21406177417694</v>
+        <v>11.32307723856726</v>
       </c>
       <c r="J17">
-        <v>9.908900671087835</v>
+        <v>6.805038220969488</v>
       </c>
       <c r="K17">
-        <v>13.76135261805124</v>
+        <v>19.71375829778276</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.05850594004784</v>
+        <v>11.61286833766822</v>
       </c>
       <c r="O17">
-        <v>24.3743042890305</v>
+        <v>17.27112511041092</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.394778560432638</v>
+        <v>8.442042941291373</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.392088326341288</v>
+        <v>8.392462986905215</v>
       </c>
       <c r="E18">
-        <v>13.90408859465858</v>
+        <v>12.43154827249475</v>
       </c>
       <c r="F18">
-        <v>32.68368782475822</v>
+        <v>25.87335927030731</v>
       </c>
       <c r="G18">
-        <v>3.644099527002617</v>
+        <v>2.065967380030781</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.23664146387151</v>
+        <v>11.39383034537724</v>
       </c>
       <c r="J18">
-        <v>9.908266790292322</v>
+        <v>6.769890790898684</v>
       </c>
       <c r="K18">
-        <v>13.67610169417628</v>
+        <v>19.4752970586089</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.07048100490119</v>
+        <v>11.65252295054799</v>
       </c>
       <c r="O18">
-        <v>24.38018821318046</v>
+        <v>17.19264383610976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.383692095079711</v>
+        <v>8.409627316808985</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.386864286767251</v>
+        <v>8.364280493931224</v>
       </c>
       <c r="E19">
-        <v>13.89741151537853</v>
+        <v>12.39073624549241</v>
       </c>
       <c r="F19">
-        <v>32.68041197679404</v>
+        <v>25.81108179028205</v>
       </c>
       <c r="G19">
-        <v>3.644261610444298</v>
+        <v>2.066426758707455</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.24433738879694</v>
+        <v>11.41786083391438</v>
       </c>
       <c r="J19">
-        <v>9.908079141983286</v>
+        <v>6.758026476151559</v>
       </c>
       <c r="K19">
-        <v>13.64713928091403</v>
+        <v>19.39395084514964</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.07456392732025</v>
+        <v>11.66599771421593</v>
       </c>
       <c r="O19">
-        <v>24.38227699462762</v>
+        <v>17.16632697079059</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.433479611646038</v>
+        <v>8.554513949894325</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.410453626409769</v>
+        <v>8.490624427286079</v>
       </c>
       <c r="E20">
-        <v>13.92762275246041</v>
+        <v>12.57388453702025</v>
       </c>
       <c r="F20">
-        <v>32.69570787019171</v>
+        <v>26.09201780578097</v>
       </c>
       <c r="G20">
-        <v>3.643536694460884</v>
+        <v>2.064365039308271</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.20990691140207</v>
+        <v>11.31001773469717</v>
       </c>
       <c r="J20">
-        <v>9.909030793669526</v>
+        <v>6.811560193686618</v>
       </c>
       <c r="K20">
-        <v>13.77708346748613</v>
+        <v>19.75760401259357</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.05630309419177</v>
+        <v>11.60555211621151</v>
       </c>
       <c r="O20">
-        <v>24.37326119772963</v>
+        <v>17.28577181580413</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.598805640438743</v>
+        <v>9.02403446584516</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.49106890413597</v>
+        <v>8.906507984388124</v>
       </c>
       <c r="E21">
-        <v>14.03192590564395</v>
+        <v>13.17998669136615</v>
       </c>
       <c r="F21">
-        <v>32.7567730358551</v>
+        <v>27.04735577187595</v>
       </c>
       <c r="G21">
-        <v>3.641179219925047</v>
+        <v>2.057530998497402</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.09775311466731</v>
+        <v>10.9527689074551</v>
       </c>
       <c r="J21">
-        <v>9.914100421062724</v>
+        <v>6.993855741126283</v>
       </c>
       <c r="K21">
-        <v>14.20647101117877</v>
+        <v>20.93741665983173</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.99691890426515</v>
+        <v>11.40581256026371</v>
       </c>
       <c r="O21">
-        <v>24.34969553123706</v>
+        <v>17.7049830055291</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.705220534946295</v>
+        <v>9.318023309933606</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.54470444856659</v>
+        <v>9.171673535710768</v>
       </c>
       <c r="E22">
-        <v>14.10209716561313</v>
+        <v>13.56888051857707</v>
       </c>
       <c r="F22">
-        <v>32.80385681490897</v>
+        <v>27.67971838940199</v>
       </c>
       <c r="G22">
-        <v>3.639696458352345</v>
+        <v>2.053129087695689</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.02707406396088</v>
+        <v>10.72295113120823</v>
       </c>
       <c r="J22">
-        <v>9.918803803737386</v>
+        <v>7.11472535039713</v>
       </c>
       <c r="K22">
-        <v>14.48128779274179</v>
+        <v>21.67747695218701</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.95957138573777</v>
+        <v>11.27774973592808</v>
       </c>
       <c r="O22">
-        <v>24.33931422958143</v>
+        <v>17.99242506368846</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.648585661658267</v>
+        <v>9.16229252441795</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.515995455864648</v>
+        <v>9.030769317929721</v>
       </c>
       <c r="E23">
-        <v>14.06446751207075</v>
+        <v>13.36200064031015</v>
       </c>
       <c r="F23">
-        <v>32.77807337209619</v>
+        <v>27.34151388992493</v>
       </c>
       <c r="G23">
-        <v>3.640482547005396</v>
+        <v>2.055472886867933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.06455768240541</v>
+        <v>10.84528216795616</v>
       </c>
       <c r="J23">
-        <v>9.916166688842129</v>
+        <v>7.050061656864913</v>
       </c>
       <c r="K23">
-        <v>14.33517182483887</v>
+        <v>21.28531074065351</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.97937084107154</v>
+        <v>11.34587350096911</v>
       </c>
       <c r="O23">
-        <v>24.34439519247614</v>
+        <v>17.83777206831224</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.430752394053216</v>
+        <v>8.546622470794219</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.409152942292117</v>
+        <v>8.483718001874555</v>
       </c>
       <c r="E24">
-        <v>13.92595296658423</v>
+        <v>12.56386074128195</v>
       </c>
       <c r="F24">
-        <v>32.69483142174423</v>
+        <v>26.07654568183631</v>
       </c>
       <c r="G24">
-        <v>3.64357620874434</v>
+        <v>2.064477897164459</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.21178437246989</v>
+        <v>11.31592049417227</v>
       </c>
       <c r="J24">
-        <v>9.908971477616998</v>
+        <v>6.808611015141297</v>
       </c>
       <c r="K24">
-        <v>13.76997348967223</v>
+        <v>19.73779268525445</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.05729847002869</v>
+        <v>11.60885884876995</v>
       </c>
       <c r="O24">
-        <v>24.37373101921148</v>
+        <v>17.27914550543365</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.189955951628309</v>
+        <v>7.827256314653141</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.298387537334072</v>
+        <v>7.866690638467923</v>
       </c>
       <c r="E25">
-        <v>13.78566496946327</v>
+        <v>11.67429476987425</v>
       </c>
       <c r="F25">
-        <v>32.63605305708639</v>
+        <v>24.74999811487035</v>
       </c>
       <c r="G25">
-        <v>3.647163854083816</v>
+        <v>2.074498825394346</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.38190246897</v>
+        <v>11.84013974008251</v>
       </c>
       <c r="J25">
-        <v>9.90721090249189</v>
+        <v>6.556143190349956</v>
       </c>
       <c r="K25">
-        <v>13.13832009710742</v>
+        <v>17.93353195557012</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.14766935439293</v>
+        <v>11.9032976363175</v>
       </c>
       <c r="O25">
-        <v>24.42687610433381</v>
+        <v>16.73350287617659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.250141843412003</v>
+        <v>5.989532598894055</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.391430771165912</v>
+        <v>5.280292712761824</v>
       </c>
       <c r="E2">
-        <v>10.99810054030018</v>
+        <v>8.858825356822342</v>
       </c>
       <c r="F2">
-        <v>23.81025511478094</v>
+        <v>28.71537289237165</v>
       </c>
       <c r="G2">
-        <v>2.082174206765592</v>
+        <v>36.33766429701705</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.156358477300484</v>
       </c>
       <c r="I2">
-        <v>12.24132508535058</v>
+        <v>3.47985318138277</v>
       </c>
       <c r="J2">
-        <v>6.377743213021528</v>
+        <v>11.84031772464001</v>
       </c>
       <c r="K2">
-        <v>16.48697438329625</v>
+        <v>15.08902948820677</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.401908715092007</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.26959608525945</v>
       </c>
       <c r="N2">
-        <v>12.12956508136172</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.37936824704053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.02773495026604</v>
+      </c>
+      <c r="P2">
+        <v>13.36997706788631</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.829625436798486</v>
+        <v>5.648396153418927</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.057836567619487</v>
+        <v>5.080769940492056</v>
       </c>
       <c r="E3">
-        <v>10.52897145834718</v>
+        <v>8.548956110376656</v>
       </c>
       <c r="F3">
-        <v>23.19892687035729</v>
+        <v>27.92647848012866</v>
       </c>
       <c r="G3">
-        <v>2.08757607153169</v>
+        <v>35.12484455490249</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.423086848690309</v>
       </c>
       <c r="I3">
-        <v>12.52316073965787</v>
+        <v>3.583690727197826</v>
       </c>
       <c r="J3">
-        <v>6.261855749981128</v>
+        <v>11.70654758874695</v>
       </c>
       <c r="K3">
-        <v>15.43219200974856</v>
+        <v>15.2183942889395</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.27681577247451</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.19892318111312</v>
       </c>
       <c r="N3">
-        <v>12.28893850980815</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.16818155447977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.32352040068461</v>
+      </c>
+      <c r="P3">
+        <v>13.52454263792477</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.557053712892557</v>
+        <v>5.422527445599608</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.848002098930488</v>
+        <v>4.954775015579557</v>
       </c>
       <c r="E4">
-        <v>10.23656032851293</v>
+        <v>8.352339454469703</v>
       </c>
       <c r="F4">
-        <v>22.83701662191359</v>
+        <v>27.44155123228211</v>
       </c>
       <c r="G4">
-        <v>2.090996159412146</v>
+        <v>34.37638242409625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.592415178956309</v>
       </c>
       <c r="I4">
-        <v>12.70126278800351</v>
+        <v>3.650501889952275</v>
       </c>
       <c r="J4">
-        <v>6.193289075768427</v>
+        <v>11.62806811151717</v>
       </c>
       <c r="K4">
-        <v>14.74766035501238</v>
+        <v>15.29899853585237</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.197674439771621</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.50534360552168</v>
       </c>
       <c r="N4">
-        <v>12.38981064719038</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.05234737311113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.87485523614891</v>
+      </c>
+      <c r="P4">
+        <v>13.62063429686713</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.442392920580603</v>
+        <v>5.314551345439498</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.761352530439613</v>
+        <v>4.903589954744643</v>
       </c>
       <c r="E5">
-        <v>10.11647648665745</v>
+        <v>8.270503040388958</v>
       </c>
       <c r="F5">
-        <v>22.69304288756622</v>
+        <v>27.23732826044821</v>
       </c>
       <c r="G5">
-        <v>2.09241648876054</v>
+        <v>34.05889305170787</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.662943800537298</v>
       </c>
       <c r="I5">
-        <v>12.7751320520203</v>
+        <v>3.681275618308299</v>
       </c>
       <c r="J5">
-        <v>6.166015488204866</v>
+        <v>11.594724782324</v>
       </c>
       <c r="K5">
-        <v>14.45941798153925</v>
+        <v>15.32663401441499</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.164446879128583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.21784141286348</v>
       </c>
       <c r="N5">
-        <v>12.43168134170846</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.00855822776312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.69076607047442</v>
+      </c>
+      <c r="P5">
+        <v>13.658961729904</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.423138037952944</v>
+        <v>5.281911140473835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.74689935410826</v>
+        <v>4.896258872705178</v>
       </c>
       <c r="E6">
-        <v>10.09648633017251</v>
+        <v>8.256635307816044</v>
       </c>
       <c r="F6">
-        <v>22.66935153225304</v>
+        <v>27.19525036533046</v>
       </c>
       <c r="G6">
-        <v>2.092653958928006</v>
+        <v>33.9915948057361</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.674865295215783</v>
       </c>
       <c r="I6">
-        <v>12.78747656098322</v>
+        <v>3.689970811802996</v>
       </c>
       <c r="J6">
-        <v>6.161527537178902</v>
+        <v>11.58645821310403</v>
       </c>
       <c r="K6">
-        <v>14.41099427497549</v>
+        <v>15.32452381520451</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.15841492120104</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.17476638110205</v>
       </c>
       <c r="N6">
-        <v>12.4386802918591</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.00149119235957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.6632333251853</v>
+      </c>
+      <c r="P6">
+        <v>13.66395206507979</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.555521830959626</v>
+        <v>5.382306713254116</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.846837960776566</v>
+        <v>4.957365906613495</v>
       </c>
       <c r="E7">
-        <v>10.23494433223074</v>
+        <v>8.350744423553241</v>
       </c>
       <c r="F7">
-        <v>22.83506057877897</v>
+        <v>27.4167034167586</v>
       </c>
       <c r="G7">
-        <v>2.091015205884317</v>
+        <v>34.33285365811455</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.593690512622921</v>
       </c>
       <c r="I7">
-        <v>12.70225375992768</v>
+        <v>3.660255633263665</v>
       </c>
       <c r="J7">
-        <v>6.192918528949901</v>
+        <v>11.62005433753837</v>
       </c>
       <c r="K7">
-        <v>14.74381064320796</v>
+        <v>15.28104206742869</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.195933936793544</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.5154009667205</v>
       </c>
       <c r="N7">
-        <v>12.39037222650501</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.05174308632106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.88114087752877</v>
+      </c>
+      <c r="P7">
+        <v>13.61740968738397</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.108145340006468</v>
+        <v>5.827219012564488</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.277512558878491</v>
+        <v>5.216375156772432</v>
       </c>
       <c r="E8">
-        <v>10.83734808140608</v>
+        <v>8.752705708146001</v>
       </c>
       <c r="F8">
-        <v>23.59675568127413</v>
+        <v>28.41548741622725</v>
       </c>
       <c r="G8">
-        <v>2.08401571713018</v>
+        <v>35.87088127470129</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.247594932515203</v>
       </c>
       <c r="I8">
-        <v>12.33746559063031</v>
+        <v>3.526770941002254</v>
       </c>
       <c r="J8">
-        <v>6.337258436141438</v>
+        <v>11.78364505627204</v>
       </c>
       <c r="K8">
-        <v>16.13093052433986</v>
+        <v>15.10932818808547</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.357611559344901</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.92484850369279</v>
       </c>
       <c r="N8">
-        <v>12.18389460560805</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.30364367274638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.7992399865789</v>
+      </c>
+      <c r="P8">
+        <v>13.4183815568512</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.076960466592791</v>
+        <v>6.631851141509832</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.077965159916287</v>
+        <v>5.689629630332715</v>
       </c>
       <c r="E9">
-        <v>11.97750828753503</v>
+        <v>9.490046720209412</v>
       </c>
       <c r="F9">
-        <v>25.19141747285103</v>
+        <v>30.39872508840529</v>
       </c>
       <c r="G9">
-        <v>2.071079198370668</v>
+        <v>38.90843850475643</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.611153156010015</v>
       </c>
       <c r="I9">
-        <v>11.66125677785629</v>
+        <v>3.273721233012488</v>
       </c>
       <c r="J9">
-        <v>6.640068464500293</v>
+        <v>12.14679624741629</v>
       </c>
       <c r="K9">
-        <v>18.55952446343697</v>
+        <v>14.81399832571361</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.658314909849078</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.38137613353526</v>
       </c>
       <c r="N9">
-        <v>11.80265898383235</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.90980587939161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.45034835150841</v>
+      </c>
+      <c r="P9">
+        <v>13.04287549654102</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.718076295570471</v>
+        <v>7.144981532098134</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.634403555652392</v>
+        <v>5.96412196592626</v>
       </c>
       <c r="E10">
-        <v>12.7828760223208</v>
+        <v>9.854358998895624</v>
       </c>
       <c r="F10">
-        <v>26.41708675443906</v>
+        <v>31.619909131055</v>
       </c>
       <c r="G10">
-        <v>2.06201113037442</v>
+        <v>40.80712930134837</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.93164108821653</v>
       </c>
       <c r="I10">
-        <v>11.1869208563423</v>
+        <v>3.11006837289969</v>
       </c>
       <c r="J10">
-        <v>6.873546121493399</v>
+        <v>12.37358600328392</v>
       </c>
       <c r="K10">
-        <v>20.16834803313746</v>
+        <v>14.56325706586219</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.805607281924606</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.96736894559944</v>
       </c>
       <c r="N10">
-        <v>11.53664001272175</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.42623705311508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.44724158634803</v>
+      </c>
+      <c r="P10">
+        <v>12.76361861239821</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.994360603766744</v>
+        <v>7.471530835413686</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.879942154724263</v>
+        <v>5.623337511206427</v>
       </c>
       <c r="E11">
-        <v>13.14112723500321</v>
+        <v>8.864620221930727</v>
       </c>
       <c r="F11">
-        <v>26.98497509719802</v>
+        <v>30.34219608376825</v>
       </c>
       <c r="G11">
-        <v>2.057969970780486</v>
+        <v>39.25703180725014</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.845778623005366</v>
       </c>
       <c r="I11">
-        <v>10.9757018406485</v>
+        <v>3.079340919794778</v>
       </c>
       <c r="J11">
-        <v>6.981940864868992</v>
+        <v>11.99549939007175</v>
       </c>
       <c r="K11">
-        <v>20.86278057270573</v>
+        <v>14.17456620686787</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.409902037375398</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.21645157825652</v>
       </c>
       <c r="N11">
-        <v>11.41861060857339</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.67703655825286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.76291245731107</v>
+      </c>
+      <c r="P11">
+        <v>12.59707068010804</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.09677505448496</v>
+        <v>7.694288510440016</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.971785709993485</v>
+        <v>5.284348564611852</v>
       </c>
       <c r="E12">
-        <v>13.27555245759763</v>
+        <v>8.10637616771346</v>
       </c>
       <c r="F12">
-        <v>27.20139989967013</v>
+        <v>29.01231695828591</v>
       </c>
       <c r="G12">
-        <v>2.056450823684274</v>
+        <v>37.56641100586582</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.120499331295767</v>
       </c>
       <c r="I12">
-        <v>10.89634859141425</v>
+        <v>3.069788542949804</v>
       </c>
       <c r="J12">
-        <v>7.023285265490204</v>
+        <v>11.63152168219744</v>
       </c>
       <c r="K12">
-        <v>21.12042083106788</v>
+        <v>13.93793992533752</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.158435636446255</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.08545637449219</v>
       </c>
       <c r="N12">
-        <v>11.37434085233595</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.77431690022167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.95486078447197</v>
+      </c>
+      <c r="P12">
+        <v>12.53711917715249</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.074816446351978</v>
+        <v>7.810304410296191</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.952056713914086</v>
+        <v>4.926570016448354</v>
       </c>
       <c r="E13">
-        <v>13.24665751251368</v>
+        <v>7.512265301661647</v>
       </c>
       <c r="F13">
-        <v>27.1547291880377</v>
+        <v>27.50856418784937</v>
       </c>
       <c r="G13">
-        <v>2.056777518527142</v>
+        <v>35.57277413330352</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.448537684233815</v>
       </c>
       <c r="I13">
-        <v>10.91341107783883</v>
+        <v>3.090400856453383</v>
       </c>
       <c r="J13">
-        <v>7.014368010757652</v>
+        <v>11.24244211180349</v>
       </c>
       <c r="K13">
-        <v>21.06516932448466</v>
+        <v>13.77705171861303</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.010093692272824</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.66619757444023</v>
       </c>
       <c r="N13">
-        <v>11.38385626626162</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.75326280870769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.99215690460667</v>
+      </c>
+      <c r="P13">
+        <v>12.54818744169247</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.002830547328026</v>
+        <v>7.835669054375825</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.88752117932437</v>
+        <v>4.670261384977482</v>
       </c>
       <c r="E14">
-        <v>13.15221160329279</v>
+        <v>7.221800849496112</v>
       </c>
       <c r="F14">
-        <v>27.00275343462584</v>
+        <v>26.36413005240098</v>
       </c>
       <c r="G14">
-        <v>2.057844771622902</v>
+        <v>34.01349729286049</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.472923117032003</v>
       </c>
       <c r="I14">
-        <v>10.96916090239197</v>
+        <v>3.121296434426846</v>
       </c>
       <c r="J14">
-        <v>6.985336415072102</v>
+        <v>10.95696431499257</v>
       </c>
       <c r="K14">
-        <v>20.88408319652924</v>
+        <v>13.69749832402183</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.973182608067924</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.23984046366855</v>
       </c>
       <c r="N14">
-        <v>11.41496000143307</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.68499347749169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.23913723621288</v>
+      </c>
+      <c r="P14">
+        <v>12.58873867753911</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.958449577827999</v>
+        <v>7.806378633790136</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.847842123869956</v>
+        <v>4.603047329701067</v>
       </c>
       <c r="E15">
-        <v>13.09419792154918</v>
+        <v>7.164376973271626</v>
       </c>
       <c r="F15">
-        <v>26.90984044340599</v>
+        <v>26.0432843576921</v>
       </c>
       <c r="G15">
-        <v>2.058499918932959</v>
+        <v>33.55763589993607</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.713500492551747</v>
       </c>
       <c r="I15">
-        <v>11.00339068595055</v>
+        <v>3.139706487298619</v>
       </c>
       <c r="J15">
-        <v>6.967592034543007</v>
+        <v>10.88080795134628</v>
       </c>
       <c r="K15">
-        <v>20.77247083918472</v>
+        <v>13.68850958598068</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.97003827206244</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.07668128044715</v>
       </c>
       <c r="N15">
-        <v>11.43406724309754</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.64347782439173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.02461845585171</v>
+      </c>
+      <c r="P15">
+        <v>12.61113723704981</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.699711319412168</v>
+        <v>7.562941471734487</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.618200202053215</v>
+        <v>4.545471622180163</v>
       </c>
       <c r="E16">
-        <v>12.75929380261809</v>
+        <v>7.100236151932012</v>
       </c>
       <c r="F16">
-        <v>26.38017216850609</v>
+        <v>25.76087073523782</v>
       </c>
       <c r="G16">
-        <v>2.062276841787813</v>
+        <v>33.03152982571147</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.513650452765122</v>
       </c>
       <c r="I16">
-        <v>11.20081414810949</v>
+        <v>3.210485812799169</v>
       </c>
       <c r="J16">
-        <v>6.866504776558307</v>
+        <v>10.85184521973619</v>
       </c>
       <c r="K16">
-        <v>20.12221671360298</v>
+        <v>13.81967201742171</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.929004987746423</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.48619613048001</v>
       </c>
       <c r="N16">
-        <v>11.54441322622263</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.41016836500397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.74855326398265</v>
+      </c>
+      <c r="P16">
+        <v>12.71941367933082</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.537048531330148</v>
+        <v>7.355907532853066</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.475342949439382</v>
+        <v>4.638762555121231</v>
       </c>
       <c r="E17">
-        <v>12.55170730164848</v>
+        <v>7.181507582731024</v>
       </c>
       <c r="F17">
-        <v>26.05780118845061</v>
+        <v>26.16700047122419</v>
       </c>
       <c r="G17">
-        <v>2.064614728790523</v>
+        <v>33.48449958004804</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.779737300279936</v>
       </c>
       <c r="I17">
-        <v>11.32307723856726</v>
+        <v>3.249216617599157</v>
       </c>
       <c r="J17">
-        <v>6.805038220969488</v>
+        <v>10.98305945699981</v>
       </c>
       <c r="K17">
-        <v>19.71375829778276</v>
+        <v>13.96033182188232</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.905273888202013</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.26282625847492</v>
       </c>
       <c r="N17">
-        <v>11.61286833766822</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.27112511041092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.95219937656422</v>
+      </c>
+      <c r="P17">
+        <v>12.78129295181476</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.442042941291373</v>
+        <v>7.18878761953699</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.392462986905215</v>
+        <v>4.882231302997271</v>
       </c>
       <c r="E18">
-        <v>12.43154827249475</v>
+        <v>7.533140803939335</v>
       </c>
       <c r="F18">
-        <v>25.87335927030731</v>
+        <v>27.22283076692709</v>
       </c>
       <c r="G18">
-        <v>2.065967380030781</v>
+        <v>34.84993529739967</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.520976105569465</v>
       </c>
       <c r="I18">
-        <v>11.39383034537724</v>
+        <v>3.253974081686978</v>
       </c>
       <c r="J18">
-        <v>6.769890790898684</v>
+        <v>11.27032704972851</v>
       </c>
       <c r="K18">
-        <v>19.4752970586089</v>
+        <v>14.14294972452472</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.961937268564339</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.33025873395872</v>
       </c>
       <c r="N18">
-        <v>11.65252295054799</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.19264383610976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.58695709990934</v>
+      </c>
+      <c r="P18">
+        <v>12.8190148870782</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.409627316808985</v>
+        <v>7.009446575552576</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.364280493931224</v>
+        <v>5.245491667251271</v>
       </c>
       <c r="E19">
-        <v>12.39073624549241</v>
+        <v>8.241769305935131</v>
       </c>
       <c r="F19">
-        <v>25.81108179028205</v>
+        <v>28.67938817433471</v>
       </c>
       <c r="G19">
-        <v>2.066426758707455</v>
+        <v>36.76429848607155</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.00983614566621</v>
       </c>
       <c r="I19">
-        <v>11.41786083391438</v>
+        <v>3.249090951408773</v>
       </c>
       <c r="J19">
-        <v>6.758026476151559</v>
+        <v>11.6487709303728</v>
       </c>
       <c r="K19">
-        <v>19.39395084514964</v>
+        <v>14.3317617150651</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.173891273385205</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.64692818236541</v>
       </c>
       <c r="N19">
-        <v>11.66599771421593</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.16632697079059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.52405647465345</v>
+      </c>
+      <c r="P19">
+        <v>12.84401625502246</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.554513949894325</v>
+        <v>6.919500292461883</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.490624427286079</v>
+        <v>5.899203221161394</v>
       </c>
       <c r="E20">
-        <v>12.57388453702025</v>
+        <v>9.752342173657334</v>
       </c>
       <c r="F20">
-        <v>26.09201780578097</v>
+        <v>31.23126500947599</v>
       </c>
       <c r="G20">
-        <v>2.064365039308271</v>
+        <v>40.19532605178615</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.819937077478991</v>
       </c>
       <c r="I20">
-        <v>11.31001773469717</v>
+        <v>3.182232767448197</v>
       </c>
       <c r="J20">
-        <v>6.811560193686618</v>
+        <v>12.28870661650995</v>
       </c>
       <c r="K20">
-        <v>19.75760401259357</v>
+        <v>14.57241004959059</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.761165021111859</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.59251797105501</v>
       </c>
       <c r="N20">
-        <v>11.60555211621151</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.28577181580413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.20658323052574</v>
+      </c>
+      <c r="P20">
+        <v>12.82711874305191</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.02403446584516</v>
+        <v>7.287258264667923</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.906507984388124</v>
+        <v>6.186991936029954</v>
       </c>
       <c r="E21">
-        <v>13.17998669136615</v>
+        <v>10.24631450458224</v>
       </c>
       <c r="F21">
-        <v>27.04735577187595</v>
+        <v>32.49839722319604</v>
       </c>
       <c r="G21">
-        <v>2.057530998497402</v>
+        <v>42.08486799829516</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.156191161611444</v>
       </c>
       <c r="I21">
-        <v>10.9527689074551</v>
+        <v>3.05050332721156</v>
       </c>
       <c r="J21">
-        <v>6.993855741126283</v>
+        <v>12.55827006941857</v>
       </c>
       <c r="K21">
-        <v>20.93741665983173</v>
+        <v>14.4394222480348</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.96751580888383</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.82996952905556</v>
       </c>
       <c r="N21">
-        <v>11.40581256026371</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.7049830055291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.14107136173037</v>
+      </c>
+      <c r="P21">
+        <v>12.62534879038378</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.318023309933606</v>
+        <v>7.56637434492214</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.171673535710768</v>
+        <v>6.339475352618937</v>
       </c>
       <c r="E22">
-        <v>13.56888051857707</v>
+        <v>10.48908969793562</v>
       </c>
       <c r="F22">
-        <v>27.67971838940199</v>
+        <v>33.23703327009384</v>
       </c>
       <c r="G22">
-        <v>2.053129087695689</v>
+        <v>43.20764323578283</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.365383524452056</v>
       </c>
       <c r="I22">
-        <v>10.72295113120823</v>
+        <v>2.955997968009466</v>
       </c>
       <c r="J22">
-        <v>7.11472535039713</v>
+        <v>12.71849621599958</v>
       </c>
       <c r="K22">
-        <v>21.67747695218701</v>
+        <v>14.36121753190621</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.070066920840596</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.56875692315751</v>
       </c>
       <c r="N22">
-        <v>11.27774973592808</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.99242506368846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.6586253684866</v>
+      </c>
+      <c r="P22">
+        <v>12.49452467908827</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.16229252441795</v>
+        <v>7.454666512273531</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.030769317929721</v>
+        <v>6.25533029148313</v>
       </c>
       <c r="E23">
-        <v>13.36200064031015</v>
+        <v>10.36051907652202</v>
       </c>
       <c r="F23">
-        <v>27.34151388992493</v>
+        <v>32.8648925892314</v>
       </c>
       <c r="G23">
-        <v>2.055472886867933</v>
+        <v>42.64656968412459</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.254333846720376</v>
       </c>
       <c r="I23">
-        <v>10.84528216795616</v>
+        <v>2.994524278219727</v>
       </c>
       <c r="J23">
-        <v>7.050061656864913</v>
+        <v>12.64064160670707</v>
       </c>
       <c r="K23">
-        <v>21.28531074065351</v>
+        <v>14.4238068684645</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.016814721836968</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.16549004574161</v>
       </c>
       <c r="N23">
-        <v>11.34587350096911</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.83777206831224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.37617674416766</v>
+      </c>
+      <c r="P23">
+        <v>12.56773576703861</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.546622470794219</v>
+        <v>6.954874098896694</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.483718001874555</v>
+        <v>5.933677890394881</v>
       </c>
       <c r="E24">
-        <v>12.56386074128195</v>
+        <v>9.86062817733421</v>
       </c>
       <c r="F24">
-        <v>26.07654568183631</v>
+        <v>31.41140762418691</v>
       </c>
       <c r="G24">
-        <v>2.064477897164459</v>
+        <v>40.44241116967699</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.825992781077641</v>
       </c>
       <c r="I24">
-        <v>11.31592049417227</v>
+        <v>3.163764866138083</v>
       </c>
       <c r="J24">
-        <v>6.808611015141297</v>
+        <v>12.34036402324322</v>
       </c>
       <c r="K24">
-        <v>19.73779268525445</v>
+        <v>14.63001748225222</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.809166596756919</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.5952976545588</v>
       </c>
       <c r="N24">
-        <v>11.60885884876995</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.27914550543365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.28384221101613</v>
+      </c>
+      <c r="P24">
+        <v>12.84050483172934</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.827256314653141</v>
+        <v>6.368070528890149</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.866690638467923</v>
+        <v>5.570195868275243</v>
       </c>
       <c r="E25">
-        <v>11.67429476987425</v>
+        <v>9.295495351453209</v>
       </c>
       <c r="F25">
-        <v>24.74999811487035</v>
+        <v>29.82844210592629</v>
       </c>
       <c r="G25">
-        <v>2.074498825394346</v>
+        <v>38.02995145303179</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.779438078010665</v>
       </c>
       <c r="I25">
-        <v>11.84013974008251</v>
+        <v>3.356195780658602</v>
       </c>
       <c r="J25">
-        <v>6.556143190349956</v>
+        <v>12.03245739151417</v>
       </c>
       <c r="K25">
-        <v>17.93353195557012</v>
+        <v>14.86055697526542</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.576805030436146</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.76788667932986</v>
       </c>
       <c r="N25">
-        <v>11.9032976363175</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.73350287617659</v>
+        <v>15.03242590880377</v>
+      </c>
+      <c r="P25">
+        <v>13.13780761768172</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.989532598894055</v>
+        <v>6.008676654602591</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.280292712761824</v>
+        <v>5.30727955393167</v>
       </c>
       <c r="E2">
-        <v>8.858825356822342</v>
+        <v>8.844770187370118</v>
       </c>
       <c r="F2">
-        <v>28.71537289237165</v>
+        <v>28.50782190148123</v>
       </c>
       <c r="G2">
-        <v>36.33766429701705</v>
+        <v>35.58449546316641</v>
       </c>
       <c r="H2">
-        <v>2.156358477300484</v>
+        <v>2.140065346821668</v>
       </c>
       <c r="I2">
-        <v>3.47985318138277</v>
+        <v>3.216735149883976</v>
       </c>
       <c r="J2">
-        <v>11.84031772464001</v>
+        <v>12.07306971364223</v>
       </c>
       <c r="K2">
-        <v>15.08902948820677</v>
+        <v>14.30804250941615</v>
       </c>
       <c r="L2">
-        <v>6.401908715092007</v>
+        <v>11.63815739583542</v>
       </c>
       <c r="M2">
-        <v>16.26959608525945</v>
+        <v>9.465551009946179</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.381674503907552</v>
       </c>
       <c r="O2">
-        <v>14.02773495026604</v>
+        <v>16.32298575620216</v>
       </c>
       <c r="P2">
-        <v>13.36997706788631</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.15171685246265</v>
+      </c>
+      <c r="R2">
+        <v>13.1762747895051</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.648396153418927</v>
+        <v>5.773732743092213</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.080769940492056</v>
+        <v>5.107879876661551</v>
       </c>
       <c r="E3">
-        <v>8.548956110376656</v>
+        <v>8.544759949576216</v>
       </c>
       <c r="F3">
-        <v>27.92647848012866</v>
+        <v>27.75037936908988</v>
       </c>
       <c r="G3">
-        <v>35.12484455490249</v>
+        <v>34.46567073361085</v>
       </c>
       <c r="H3">
-        <v>2.423086848690309</v>
+        <v>2.398665441006889</v>
       </c>
       <c r="I3">
-        <v>3.583690727197826</v>
+        <v>3.303027860817755</v>
       </c>
       <c r="J3">
-        <v>11.70654758874695</v>
+        <v>11.90424730830882</v>
       </c>
       <c r="K3">
-        <v>15.2183942889395</v>
+        <v>14.44789890714972</v>
       </c>
       <c r="L3">
-        <v>6.27681577247451</v>
+        <v>11.80058978452381</v>
       </c>
       <c r="M3">
-        <v>15.19892318111312</v>
+        <v>9.56070417074868</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.262920272200319</v>
       </c>
       <c r="O3">
-        <v>13.32352040068461</v>
+        <v>15.22852017367124</v>
       </c>
       <c r="P3">
-        <v>13.52454263792477</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.43431093395643</v>
+      </c>
+      <c r="R3">
+        <v>13.32622523773271</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.422527445599608</v>
+        <v>5.617934340481581</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.954775015579557</v>
+        <v>4.982162213824546</v>
       </c>
       <c r="E4">
-        <v>8.352339454469703</v>
+        <v>8.35452665565845</v>
       </c>
       <c r="F4">
-        <v>27.44155123228211</v>
+        <v>27.2839704860858</v>
       </c>
       <c r="G4">
-        <v>34.37638242409625</v>
+        <v>33.77992925866643</v>
       </c>
       <c r="H4">
-        <v>2.592415178956309</v>
+        <v>2.562878786610492</v>
       </c>
       <c r="I4">
-        <v>3.650501889952275</v>
+        <v>3.358908476700116</v>
       </c>
       <c r="J4">
-        <v>11.62806811151717</v>
+        <v>11.80097444144845</v>
       </c>
       <c r="K4">
-        <v>15.29899853585237</v>
+        <v>14.53426577381062</v>
       </c>
       <c r="L4">
-        <v>6.197674439771621</v>
+        <v>11.90477006974257</v>
       </c>
       <c r="M4">
-        <v>14.50534360552168</v>
+        <v>9.630079094793595</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.187775076233052</v>
       </c>
       <c r="O4">
-        <v>12.87485523614891</v>
+        <v>14.51901775052174</v>
       </c>
       <c r="P4">
-        <v>13.62063429686713</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.97716802137399</v>
+      </c>
+      <c r="R4">
+        <v>13.41959683473238</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.314551345439498</v>
+        <v>5.541520789245192</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.903589954744643</v>
+        <v>4.931077687925181</v>
       </c>
       <c r="E5">
-        <v>8.270503040388958</v>
+        <v>8.275394030954141</v>
       </c>
       <c r="F5">
-        <v>27.23732826044821</v>
+        <v>27.08755612850126</v>
       </c>
       <c r="G5">
-        <v>34.05889305170787</v>
+        <v>33.49002778925017</v>
       </c>
       <c r="H5">
-        <v>2.662943800537298</v>
+        <v>2.63127759305409</v>
       </c>
       <c r="I5">
-        <v>3.681275618308299</v>
+        <v>3.385661557025018</v>
       </c>
       <c r="J5">
-        <v>11.594724782324</v>
+        <v>11.75688105322181</v>
       </c>
       <c r="K5">
-        <v>15.32663401441499</v>
+        <v>14.56459143879941</v>
       </c>
       <c r="L5">
-        <v>6.164446879128583</v>
+        <v>11.94271843086993</v>
       </c>
       <c r="M5">
-        <v>14.21784141286348</v>
+        <v>9.659238779469002</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.156234384800676</v>
       </c>
       <c r="O5">
-        <v>12.69076607047442</v>
+        <v>14.2244138397416</v>
       </c>
       <c r="P5">
-        <v>13.658961729904</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.78933473904378</v>
+      </c>
+      <c r="R5">
+        <v>13.45698389244923</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.281911140473835</v>
+        <v>5.51638810884289</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.896258872705178</v>
+        <v>4.923682168555326</v>
       </c>
       <c r="E6">
-        <v>8.256635307816044</v>
+        <v>8.262002353400453</v>
       </c>
       <c r="F6">
-        <v>27.19525036533046</v>
+        <v>27.04735619438987</v>
       </c>
       <c r="G6">
-        <v>33.9915948057361</v>
+        <v>33.42841331611862</v>
       </c>
       <c r="H6">
-        <v>2.674865295215783</v>
+        <v>2.642828240812721</v>
       </c>
       <c r="I6">
-        <v>3.689970811802996</v>
+        <v>3.394315462237319</v>
       </c>
       <c r="J6">
-        <v>11.58645821310403</v>
+        <v>11.74696723793241</v>
       </c>
       <c r="K6">
-        <v>15.32452381520451</v>
+        <v>14.56354366489013</v>
       </c>
       <c r="L6">
-        <v>6.15841492120104</v>
+        <v>11.94226134021721</v>
       </c>
       <c r="M6">
-        <v>14.17476638110205</v>
+        <v>9.661985588798863</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.15052394854688</v>
       </c>
       <c r="O6">
-        <v>12.6632333251853</v>
+        <v>14.17979174190556</v>
       </c>
       <c r="P6">
-        <v>13.66395206507979</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.76092322262628</v>
+      </c>
+      <c r="R6">
+        <v>13.46199330381668</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.382306713254116</v>
+        <v>5.587694335145455</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.957365906613495</v>
+        <v>4.989870027194734</v>
       </c>
       <c r="E7">
-        <v>8.350744423553241</v>
+        <v>8.355394653626414</v>
       </c>
       <c r="F7">
-        <v>27.4167034167586</v>
+        <v>27.23700379072172</v>
       </c>
       <c r="G7">
-        <v>34.33285365811455</v>
+        <v>33.8127595150393</v>
       </c>
       <c r="H7">
-        <v>2.593690512622921</v>
+        <v>2.56501462022821</v>
       </c>
       <c r="I7">
-        <v>3.660255633263665</v>
+        <v>3.370538827749317</v>
       </c>
       <c r="J7">
-        <v>11.62005433753837</v>
+        <v>11.74019166333599</v>
       </c>
       <c r="K7">
-        <v>15.28104206742869</v>
+        <v>14.51495471149022</v>
       </c>
       <c r="L7">
-        <v>6.195933936793544</v>
+        <v>11.88390925887126</v>
       </c>
       <c r="M7">
-        <v>14.5154009667205</v>
+        <v>9.62230268131488</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.185755141832658</v>
       </c>
       <c r="O7">
-        <v>12.88114087752877</v>
+        <v>14.51536259414991</v>
       </c>
       <c r="P7">
-        <v>13.61740968738397</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.97728308618145</v>
+      </c>
+      <c r="R7">
+        <v>13.41585683822399</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.827219012564488</v>
+        <v>5.900636007915802</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.216375156772432</v>
+        <v>5.260174781407922</v>
       </c>
       <c r="E8">
-        <v>8.752705708146001</v>
+        <v>8.749763558490949</v>
       </c>
       <c r="F8">
-        <v>28.41548741622725</v>
+        <v>28.14439299200418</v>
       </c>
       <c r="G8">
-        <v>35.87088127470129</v>
+        <v>35.38778862112595</v>
       </c>
       <c r="H8">
-        <v>2.247594932515203</v>
+        <v>2.231367408034753</v>
       </c>
       <c r="I8">
-        <v>3.526770941002254</v>
+        <v>3.260617458412183</v>
       </c>
       <c r="J8">
-        <v>11.78364505627204</v>
+        <v>11.83279666499645</v>
       </c>
       <c r="K8">
-        <v>15.10932818808547</v>
+        <v>14.3247768439981</v>
       </c>
       <c r="L8">
-        <v>6.357611559344901</v>
+        <v>11.66269537359426</v>
       </c>
       <c r="M8">
-        <v>15.92484850369279</v>
+        <v>9.479021193250748</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.338436506018501</v>
       </c>
       <c r="O8">
-        <v>13.7992399865789</v>
+        <v>15.93028205466588</v>
       </c>
       <c r="P8">
-        <v>13.4183815568512</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.9008660077101</v>
+      </c>
+      <c r="R8">
+        <v>13.2209232552403</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.631851141509832</v>
+        <v>6.462564217610367</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.689629630332715</v>
+        <v>5.737463256400885</v>
       </c>
       <c r="E9">
-        <v>9.490046720209412</v>
+        <v>9.465824418643374</v>
       </c>
       <c r="F9">
-        <v>30.39872508840529</v>
+        <v>30.02851670618691</v>
       </c>
       <c r="G9">
-        <v>38.90843850475643</v>
+        <v>38.26321572203544</v>
       </c>
       <c r="H9">
-        <v>1.611153156010015</v>
+        <v>1.615146395396427</v>
       </c>
       <c r="I9">
-        <v>3.273721233012488</v>
+        <v>3.048932719532613</v>
       </c>
       <c r="J9">
-        <v>12.14679624741629</v>
+        <v>12.22224271565937</v>
       </c>
       <c r="K9">
-        <v>14.81399832571361</v>
+        <v>13.99512761266855</v>
       </c>
       <c r="L9">
-        <v>6.658314909849078</v>
+        <v>11.30400200952132</v>
       </c>
       <c r="M9">
-        <v>18.38137613353526</v>
+        <v>9.306735554846426</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.623628365260107</v>
       </c>
       <c r="O9">
-        <v>15.45034835150841</v>
+        <v>18.43500711543697</v>
       </c>
       <c r="P9">
-        <v>13.04287549654102</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.58046976238101</v>
+      </c>
+      <c r="R9">
+        <v>12.85703688158068</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.144981532098134</v>
+        <v>6.848185314151621</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.96412196592626</v>
+        <v>6.040818856118404</v>
       </c>
       <c r="E10">
-        <v>9.854358998895624</v>
+        <v>9.827911442102897</v>
       </c>
       <c r="F10">
-        <v>31.619909131055</v>
+        <v>31.06041976708763</v>
       </c>
       <c r="G10">
-        <v>40.80712930134837</v>
+        <v>40.44864672233902</v>
       </c>
       <c r="H10">
-        <v>1.93164108821653</v>
+        <v>1.909894374419431</v>
       </c>
       <c r="I10">
-        <v>3.11006837289969</v>
+        <v>2.917021905155273</v>
       </c>
       <c r="J10">
-        <v>12.37358600328392</v>
+        <v>12.16912300412862</v>
       </c>
       <c r="K10">
-        <v>14.56325706586219</v>
+        <v>13.70861875933728</v>
       </c>
       <c r="L10">
-        <v>6.805607281924606</v>
+        <v>11.03162303204249</v>
       </c>
       <c r="M10">
-        <v>19.96736894559944</v>
+        <v>9.194904444977139</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.759041516501776</v>
       </c>
       <c r="O10">
-        <v>16.44724158634803</v>
+        <v>19.99073377381628</v>
       </c>
       <c r="P10">
-        <v>12.76361861239821</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.56825155210707</v>
+      </c>
+      <c r="R10">
+        <v>12.5870934266329</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.471530835413686</v>
+        <v>7.221973939926755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.623337511206427</v>
+        <v>5.744074755513351</v>
       </c>
       <c r="E11">
-        <v>8.864620221930727</v>
+        <v>8.846850352403651</v>
       </c>
       <c r="F11">
-        <v>30.34219608376825</v>
+        <v>29.54601553268866</v>
       </c>
       <c r="G11">
-        <v>39.25703180725014</v>
+        <v>39.73668036832596</v>
       </c>
       <c r="H11">
-        <v>2.845778623005366</v>
+        <v>2.823022872988776</v>
       </c>
       <c r="I11">
-        <v>3.079340919794778</v>
+        <v>2.901691719225048</v>
       </c>
       <c r="J11">
-        <v>11.99549939007175</v>
+        <v>11.23177234847669</v>
       </c>
       <c r="K11">
-        <v>14.17456620686787</v>
+        <v>13.35374421056822</v>
       </c>
       <c r="L11">
-        <v>6.409902037375398</v>
+        <v>10.77150891740604</v>
       </c>
       <c r="M11">
-        <v>20.21645157825652</v>
+        <v>8.948744499488294</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.361235826462202</v>
       </c>
       <c r="O11">
-        <v>15.76291245731107</v>
+        <v>20.10631874795235</v>
       </c>
       <c r="P11">
-        <v>12.59707068010804</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.82185048815091</v>
+      </c>
+      <c r="R11">
+        <v>12.45108785424972</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.694288510440016</v>
+        <v>7.495193809908837</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.284348564611852</v>
+        <v>5.41603579961053</v>
       </c>
       <c r="E12">
-        <v>8.10637616771346</v>
+        <v>8.079961361859239</v>
       </c>
       <c r="F12">
-        <v>29.01231695828591</v>
+        <v>28.13155410371472</v>
       </c>
       <c r="G12">
-        <v>37.56641100586582</v>
+        <v>38.46190511611247</v>
       </c>
       <c r="H12">
-        <v>4.120499331295767</v>
+        <v>4.103432175821463</v>
       </c>
       <c r="I12">
-        <v>3.069788542949804</v>
+        <v>2.894797463594898</v>
       </c>
       <c r="J12">
-        <v>11.63152168219744</v>
+        <v>10.65074561985728</v>
       </c>
       <c r="K12">
-        <v>13.93793992533752</v>
+        <v>13.15952569495141</v>
       </c>
       <c r="L12">
-        <v>6.158435636446255</v>
+        <v>10.64575696578228</v>
       </c>
       <c r="M12">
-        <v>20.08545637449219</v>
+        <v>8.792080291180065</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.111388350953741</v>
       </c>
       <c r="O12">
-        <v>14.95486078447197</v>
+        <v>19.90378824028415</v>
       </c>
       <c r="P12">
-        <v>12.53711917715249</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.98005045270846</v>
+      </c>
+      <c r="R12">
+        <v>12.41722855423812</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.810304410296191</v>
+        <v>7.664658953428886</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.926570016448354</v>
+        <v>5.03618806566559</v>
       </c>
       <c r="E13">
-        <v>7.512265301661647</v>
+        <v>7.466704387764844</v>
       </c>
       <c r="F13">
-        <v>27.50856418784937</v>
+        <v>26.70686720201086</v>
       </c>
       <c r="G13">
-        <v>35.57277413330352</v>
+        <v>36.42846850343304</v>
       </c>
       <c r="H13">
-        <v>5.448537684233815</v>
+        <v>5.444785171185034</v>
       </c>
       <c r="I13">
-        <v>3.090400856453383</v>
+        <v>2.910819490760841</v>
       </c>
       <c r="J13">
-        <v>11.24244211180349</v>
+        <v>10.3808661038345</v>
       </c>
       <c r="K13">
-        <v>13.77705171861303</v>
+        <v>13.05476517286122</v>
       </c>
       <c r="L13">
-        <v>6.010093692272824</v>
+        <v>10.5853418186771</v>
       </c>
       <c r="M13">
-        <v>19.66619757444023</v>
+        <v>8.685506705016229</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.968704094101683</v>
       </c>
       <c r="O13">
-        <v>13.99215690460667</v>
+        <v>19.47706061666141</v>
       </c>
       <c r="P13">
-        <v>12.54818744169247</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.01259987393643</v>
+      </c>
+      <c r="R13">
+        <v>12.44698266960948</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.835669054375825</v>
+        <v>7.730422692402687</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.670261384977482</v>
+        <v>4.752144536513946</v>
       </c>
       <c r="E14">
-        <v>7.221800849496112</v>
+        <v>7.164197717833076</v>
       </c>
       <c r="F14">
-        <v>26.36413005240098</v>
+        <v>25.68824568702234</v>
       </c>
       <c r="G14">
-        <v>34.01349729286049</v>
+        <v>34.64328843969664</v>
       </c>
       <c r="H14">
-        <v>6.472923117032003</v>
+        <v>6.479336658032725</v>
       </c>
       <c r="I14">
-        <v>3.121296434426846</v>
+        <v>2.935883021687598</v>
       </c>
       <c r="J14">
-        <v>10.95696431499257</v>
+        <v>10.31363626390314</v>
       </c>
       <c r="K14">
-        <v>13.69749832402183</v>
+        <v>13.01754946564586</v>
       </c>
       <c r="L14">
-        <v>5.973182608067924</v>
+        <v>10.56586917848412</v>
       </c>
       <c r="M14">
-        <v>19.23984046366855</v>
+        <v>8.63396378046021</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.937554517370874</v>
       </c>
       <c r="O14">
-        <v>13.23913723621288</v>
+        <v>19.07298312393327</v>
       </c>
       <c r="P14">
-        <v>12.58873867753911</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.26849472290108</v>
+      </c>
+      <c r="R14">
+        <v>12.49443544086995</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.806378633790136</v>
+        <v>7.713415709679714</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.603047329701067</v>
+        <v>4.67359403943648</v>
       </c>
       <c r="E15">
-        <v>7.164376973271626</v>
+        <v>7.105459956463616</v>
       </c>
       <c r="F15">
-        <v>26.0432843576921</v>
+        <v>25.42811650158241</v>
       </c>
       <c r="G15">
-        <v>33.55763589993607</v>
+        <v>34.04934224906324</v>
       </c>
       <c r="H15">
-        <v>6.713500492551747</v>
+        <v>6.719200473138513</v>
       </c>
       <c r="I15">
-        <v>3.139706487298619</v>
+        <v>2.952170707502025</v>
       </c>
       <c r="J15">
-        <v>10.88080795134628</v>
+        <v>10.34732413994147</v>
       </c>
       <c r="K15">
-        <v>13.68850958598068</v>
+        <v>13.02115822726492</v>
       </c>
       <c r="L15">
-        <v>5.97003827206244</v>
+        <v>10.56870416556121</v>
       </c>
       <c r="M15">
-        <v>19.07668128044715</v>
+        <v>8.629025964511165</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.936615042324593</v>
       </c>
       <c r="O15">
-        <v>13.02461845585171</v>
+        <v>18.9269017342028</v>
       </c>
       <c r="P15">
-        <v>12.61113723704981</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.06115896192715</v>
+      </c>
+      <c r="R15">
+        <v>12.5162113788922</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.562941471734487</v>
+        <v>7.486032136805874</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.545471622180163</v>
+        <v>4.578244631140906</v>
       </c>
       <c r="E16">
-        <v>7.100236151932012</v>
+        <v>7.051000588793792</v>
       </c>
       <c r="F16">
-        <v>25.76087073523782</v>
+        <v>25.39082775633933</v>
       </c>
       <c r="G16">
-        <v>33.03152982571147</v>
+        <v>32.83958827773439</v>
       </c>
       <c r="H16">
-        <v>6.513650452765122</v>
+        <v>6.516838609152729</v>
       </c>
       <c r="I16">
-        <v>3.210485812799169</v>
+        <v>3.009581444241987</v>
       </c>
       <c r="J16">
-        <v>10.85184521973619</v>
+        <v>10.79391678875235</v>
       </c>
       <c r="K16">
-        <v>13.81967201742171</v>
+        <v>13.16621914298852</v>
       </c>
       <c r="L16">
-        <v>5.929004987746423</v>
+        <v>10.66073545329389</v>
       </c>
       <c r="M16">
-        <v>18.48619613048001</v>
+        <v>8.723345088745978</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.902654162196034</v>
       </c>
       <c r="O16">
-        <v>12.74855326398265</v>
+        <v>18.4349910324781</v>
       </c>
       <c r="P16">
-        <v>12.71941367933082</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.82760702822331</v>
+      </c>
+      <c r="R16">
+        <v>12.60637757261293</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.355907532853066</v>
+        <v>7.275150852983532</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.638762555121231</v>
+        <v>4.659549565622509</v>
       </c>
       <c r="E17">
-        <v>7.181507582731024</v>
+        <v>7.138805287396299</v>
       </c>
       <c r="F17">
-        <v>26.16700047122419</v>
+        <v>25.88901754350788</v>
       </c>
       <c r="G17">
-        <v>33.48449958004804</v>
+        <v>32.98778661202416</v>
       </c>
       <c r="H17">
-        <v>5.779737300279936</v>
+        <v>5.781673820594327</v>
       </c>
       <c r="I17">
-        <v>3.249216617599157</v>
+        <v>3.041525412474305</v>
       </c>
       <c r="J17">
-        <v>10.98305945699981</v>
+        <v>11.12164036266532</v>
       </c>
       <c r="K17">
-        <v>13.96033182188232</v>
+        <v>13.29660523144812</v>
       </c>
       <c r="L17">
-        <v>5.905273888202013</v>
+        <v>10.74981631585061</v>
       </c>
       <c r="M17">
-        <v>18.26282625847492</v>
+        <v>8.816949909996614</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.880787120992242</v>
       </c>
       <c r="O17">
-        <v>12.95219937656422</v>
+        <v>18.26112125003982</v>
       </c>
       <c r="P17">
-        <v>12.78129295181476</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.0528268551066</v>
+      </c>
+      <c r="R17">
+        <v>12.65541627390559</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.18878761953699</v>
+        <v>7.076120874521671</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.882231302997271</v>
+        <v>4.902544393862566</v>
       </c>
       <c r="E18">
-        <v>7.533140803939335</v>
+        <v>7.493524709452412</v>
       </c>
       <c r="F18">
-        <v>27.22283076692709</v>
+        <v>26.96030755879448</v>
       </c>
       <c r="G18">
-        <v>34.84993529739967</v>
+        <v>34.19341669444902</v>
       </c>
       <c r="H18">
-        <v>4.520976105569465</v>
+        <v>4.522701128958063</v>
       </c>
       <c r="I18">
-        <v>3.253974081686978</v>
+        <v>3.042199149566237</v>
       </c>
       <c r="J18">
-        <v>11.27032704972851</v>
+        <v>11.48161207741954</v>
       </c>
       <c r="K18">
-        <v>14.14294972452472</v>
+        <v>13.44821238473527</v>
       </c>
       <c r="L18">
-        <v>5.961937268564339</v>
+        <v>10.86033175834295</v>
       </c>
       <c r="M18">
-        <v>18.33025873395872</v>
+        <v>8.931273868202803</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.935577175664363</v>
       </c>
       <c r="O18">
-        <v>13.58695709990934</v>
+        <v>18.36208842994554</v>
       </c>
       <c r="P18">
-        <v>12.8190148870782</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.7035424432987</v>
+      </c>
+      <c r="R18">
+        <v>12.68049077643412</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.009446575552576</v>
+        <v>6.849203820670602</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.245491667251271</v>
+        <v>5.271441887230903</v>
       </c>
       <c r="E19">
-        <v>8.241769305935131</v>
+        <v>8.203592327281628</v>
       </c>
       <c r="F19">
-        <v>28.67938817433471</v>
+        <v>28.39073162785714</v>
       </c>
       <c r="G19">
-        <v>36.76429848607155</v>
+        <v>36.02046130686911</v>
       </c>
       <c r="H19">
-        <v>3.00983614566621</v>
+        <v>3.012840181300811</v>
       </c>
       <c r="I19">
-        <v>3.249090951408773</v>
+        <v>3.039682074640456</v>
       </c>
       <c r="J19">
-        <v>11.6487709303728</v>
+        <v>11.8689024121443</v>
       </c>
       <c r="K19">
-        <v>14.3317617150651</v>
+        <v>13.59437460455805</v>
       </c>
       <c r="L19">
-        <v>6.173891273385205</v>
+        <v>10.97000328805987</v>
       </c>
       <c r="M19">
-        <v>18.64692818236541</v>
+        <v>9.044413662036433</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.143020500371484</v>
       </c>
       <c r="O19">
-        <v>14.52405647465345</v>
+        <v>18.70394108277122</v>
       </c>
       <c r="P19">
-        <v>12.84401625502246</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.65384150532663</v>
+      </c>
+      <c r="R19">
+        <v>12.69195836241375</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.919500292461883</v>
+        <v>6.655930536587011</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.899203221161394</v>
+        <v>5.951239393231939</v>
       </c>
       <c r="E20">
-        <v>9.752342173657334</v>
+        <v>9.718951199208705</v>
       </c>
       <c r="F20">
-        <v>31.23126500947599</v>
+        <v>30.80138185629458</v>
       </c>
       <c r="G20">
-        <v>40.19532605178615</v>
+        <v>39.53933499961288</v>
       </c>
       <c r="H20">
-        <v>1.819937077478991</v>
+        <v>1.805586904822995</v>
       </c>
       <c r="I20">
-        <v>3.182232767448197</v>
+        <v>2.985818275588343</v>
       </c>
       <c r="J20">
-        <v>12.28870661650995</v>
+        <v>12.33683318872426</v>
       </c>
       <c r="K20">
-        <v>14.57241004959059</v>
+        <v>13.74755587398916</v>
       </c>
       <c r="L20">
-        <v>6.761165021111859</v>
+        <v>11.07441217380591</v>
       </c>
       <c r="M20">
-        <v>19.59251797105501</v>
+        <v>9.191862832164462</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.719109189948869</v>
       </c>
       <c r="O20">
-        <v>16.20658323052574</v>
+        <v>19.65638210097939</v>
       </c>
       <c r="P20">
-        <v>12.82711874305191</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.34423554114415</v>
+      </c>
+      <c r="R20">
+        <v>12.65256290648798</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.287258264667923</v>
+        <v>6.972596088003328</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.186991936029954</v>
+        <v>6.350045702464562</v>
       </c>
       <c r="E21">
-        <v>10.24631450458224</v>
+        <v>10.25372228205652</v>
       </c>
       <c r="F21">
-        <v>32.49839722319604</v>
+        <v>31.52310505616869</v>
       </c>
       <c r="G21">
-        <v>42.08486799829516</v>
+        <v>42.82839437401319</v>
       </c>
       <c r="H21">
-        <v>2.156191161611444</v>
+        <v>2.114467352229569</v>
       </c>
       <c r="I21">
-        <v>3.05050332721156</v>
+        <v>2.882336479021423</v>
       </c>
       <c r="J21">
-        <v>12.55827006941857</v>
+        <v>11.48102800266441</v>
       </c>
       <c r="K21">
-        <v>14.4394222480348</v>
+        <v>13.52073931408088</v>
       </c>
       <c r="L21">
-        <v>6.96751580888383</v>
+        <v>10.87685993203664</v>
       </c>
       <c r="M21">
-        <v>20.82996952905556</v>
+        <v>9.108120060248472</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.910212574745202</v>
       </c>
       <c r="O21">
-        <v>17.14107136173037</v>
+        <v>20.69762330405143</v>
       </c>
       <c r="P21">
-        <v>12.62534879038378</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.19232526037882</v>
+      </c>
+      <c r="R21">
+        <v>12.44455873394621</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.56637434492214</v>
+        <v>7.217604133301428</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.339475352618937</v>
+        <v>6.580554024542308</v>
       </c>
       <c r="E22">
-        <v>10.48908969793562</v>
+        <v>10.52707063593282</v>
       </c>
       <c r="F22">
-        <v>33.23703327009384</v>
+        <v>31.88351018934465</v>
       </c>
       <c r="G22">
-        <v>43.20764323578283</v>
+        <v>44.93825731253968</v>
       </c>
       <c r="H22">
-        <v>2.365383524452056</v>
+        <v>2.30608357568673</v>
       </c>
       <c r="I22">
-        <v>2.955997968009466</v>
+        <v>2.803600851442998</v>
       </c>
       <c r="J22">
-        <v>12.71849621599958</v>
+        <v>10.86613560988958</v>
       </c>
       <c r="K22">
-        <v>14.36121753190621</v>
+        <v>13.3754344902859</v>
       </c>
       <c r="L22">
-        <v>7.070066920840596</v>
+        <v>10.75753694313504</v>
       </c>
       <c r="M22">
-        <v>21.56875692315751</v>
+        <v>9.062582895093538</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.003459892865066</v>
       </c>
       <c r="O22">
-        <v>17.6586253684866</v>
+        <v>21.30124438282833</v>
       </c>
       <c r="P22">
-        <v>12.49452467908827</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.64901998103014</v>
+      </c>
+      <c r="R22">
+        <v>12.31088361045184</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.454666512273531</v>
+        <v>7.110652384224067</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.25533029148313</v>
+        <v>6.442716720018813</v>
       </c>
       <c r="E23">
-        <v>10.36051907652202</v>
+        <v>10.376049094763</v>
       </c>
       <c r="F23">
-        <v>32.8648925892314</v>
+        <v>31.76542164227897</v>
       </c>
       <c r="G23">
-        <v>42.64656968412459</v>
+        <v>43.68324922225509</v>
       </c>
       <c r="H23">
-        <v>2.254333846720376</v>
+        <v>2.205962147570458</v>
       </c>
       <c r="I23">
-        <v>2.994524278219727</v>
+        <v>2.830901642120501</v>
       </c>
       <c r="J23">
-        <v>12.64064160670707</v>
+        <v>11.31874051287952</v>
       </c>
       <c r="K23">
-        <v>14.4238068684645</v>
+        <v>13.47648221661159</v>
       </c>
       <c r="L23">
-        <v>7.016814721836968</v>
+        <v>10.83490146442728</v>
       </c>
       <c r="M23">
-        <v>21.16549004574161</v>
+        <v>9.108135679728857</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.955628316026361</v>
       </c>
       <c r="O23">
-        <v>17.37617674416766</v>
+        <v>20.9947164552572</v>
       </c>
       <c r="P23">
-        <v>12.56773576703861</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.41084449677676</v>
+      </c>
+      <c r="R23">
+        <v>12.38527818021533</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.954874098896694</v>
+        <v>6.679858580502033</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.933677890394881</v>
+        <v>5.985959839313306</v>
       </c>
       <c r="E24">
-        <v>9.86062817733421</v>
+        <v>9.827130028448705</v>
       </c>
       <c r="F24">
-        <v>31.41140762418691</v>
+        <v>30.97941147225428</v>
       </c>
       <c r="G24">
-        <v>40.44241116967699</v>
+        <v>39.76409823006705</v>
       </c>
       <c r="H24">
-        <v>1.825992781077641</v>
+        <v>1.811549735798104</v>
       </c>
       <c r="I24">
-        <v>3.163764866138083</v>
+        <v>2.963720596648422</v>
       </c>
       <c r="J24">
-        <v>12.34036402324322</v>
+        <v>12.39504812946983</v>
       </c>
       <c r="K24">
-        <v>14.63001748225222</v>
+        <v>13.79440582432409</v>
       </c>
       <c r="L24">
-        <v>6.809166596756919</v>
+        <v>11.10908440026654</v>
       </c>
       <c r="M24">
-        <v>19.5952976545588</v>
+        <v>9.228726041497302</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.766566805263495</v>
       </c>
       <c r="O24">
-        <v>16.28384221101613</v>
+        <v>19.66423498391357</v>
       </c>
       <c r="P24">
-        <v>12.84050483172934</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.42438130519768</v>
+      </c>
+      <c r="R24">
+        <v>12.66244161435359</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.368070528890149</v>
+        <v>6.263506019673393</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.570195868275243</v>
+        <v>5.609551802700924</v>
       </c>
       <c r="E25">
-        <v>9.295495351453209</v>
+        <v>9.273685968969673</v>
       </c>
       <c r="F25">
-        <v>29.82844210592629</v>
+        <v>29.51954783939318</v>
       </c>
       <c r="G25">
-        <v>38.02995145303179</v>
+        <v>37.33260313372824</v>
       </c>
       <c r="H25">
-        <v>1.779438078010665</v>
+        <v>1.776810281982863</v>
       </c>
       <c r="I25">
-        <v>3.356195780658602</v>
+        <v>3.123045720219071</v>
       </c>
       <c r="J25">
-        <v>12.03245739151417</v>
+        <v>12.17714191571609</v>
       </c>
       <c r="K25">
-        <v>14.86055697526542</v>
+        <v>14.06083042375154</v>
       </c>
       <c r="L25">
-        <v>6.576805030436146</v>
+        <v>11.37762899619278</v>
       </c>
       <c r="M25">
-        <v>17.76788667932986</v>
+        <v>9.327781750227675</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.546891454284896</v>
       </c>
       <c r="O25">
-        <v>15.03242590880377</v>
+        <v>17.82336212238724</v>
       </c>
       <c r="P25">
-        <v>13.13780761768172</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.16101146555042</v>
+      </c>
+      <c r="R25">
+        <v>12.95100587131224</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
